--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Kadar Khal/Kadar_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Kadar Khal/Kadar_khal_Dataprep_Input.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="159">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>SW_HMP_01</t>
   </si>
   <si>
     <t>Data</t>
@@ -383,9 +380,6 @@
     <t>Garden</t>
   </si>
   <si>
-    <t>GBK</t>
-  </si>
-  <si>
     <t>(Md. Mostafa Kamal),AE</t>
   </si>
   <si>
@@ -507,6 +501,27 @@
   </si>
   <si>
     <t>Re-excavation of Kadar Khal from km. 0.000 to km. 2.555 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>TP_KEX_10_14</t>
+  </si>
+  <si>
+    <t>package_name_of_khal</t>
+  </si>
+  <si>
+    <t>Data written vertically</t>
+  </si>
+  <si>
+    <t>Long_Slope_Direction</t>
+  </si>
+  <si>
+    <t>1:zero chaiange at outfall 0:zero chainage at origin</t>
+  </si>
+  <si>
+    <t>KDK</t>
   </si>
 </sst>
 </file>
@@ -705,7 +720,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,13 +923,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,11 +941,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1545,11 +1563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227649024"/>
-        <c:axId val="227650560"/>
+        <c:axId val="268153216"/>
+        <c:axId val="268154752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227649024"/>
+        <c:axId val="268153216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1595,12 +1613,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227650560"/>
+        <c:crossAx val="268154752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227650560"/>
+        <c:axId val="268154752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227649024"/>
+        <c:crossAx val="268153216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1959,11 +1977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247827456"/>
-        <c:axId val="247845632"/>
+        <c:axId val="275466112"/>
+        <c:axId val="275467648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247827456"/>
+        <c:axId val="275466112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2009,12 +2027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247845632"/>
+        <c:crossAx val="275467648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247845632"/>
+        <c:axId val="275467648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247827456"/>
+        <c:crossAx val="275466112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2385,11 +2403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247866880"/>
-        <c:axId val="247868416"/>
+        <c:axId val="275493248"/>
+        <c:axId val="275494784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247866880"/>
+        <c:axId val="275493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2435,12 +2453,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247868416"/>
+        <c:crossAx val="275494784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247868416"/>
+        <c:axId val="275494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247866880"/>
+        <c:crossAx val="275493248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2883,11 +2901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247922688"/>
-        <c:axId val="247924224"/>
+        <c:axId val="275511936"/>
+        <c:axId val="275534208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247922688"/>
+        <c:axId val="275511936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2933,12 +2951,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247924224"/>
+        <c:crossAx val="275534208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247924224"/>
+        <c:axId val="275534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247922688"/>
+        <c:crossAx val="275511936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3339,11 +3357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247953664"/>
-        <c:axId val="247955456"/>
+        <c:axId val="275567744"/>
+        <c:axId val="275569280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247953664"/>
+        <c:axId val="275567744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3389,12 +3407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247955456"/>
+        <c:crossAx val="275569280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247955456"/>
+        <c:axId val="275569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247953664"/>
+        <c:crossAx val="275567744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3783,11 +3801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247980800"/>
-        <c:axId val="247982336"/>
+        <c:axId val="275602816"/>
+        <c:axId val="275604608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247980800"/>
+        <c:axId val="275602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3833,12 +3851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247982336"/>
+        <c:crossAx val="275604608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247982336"/>
+        <c:axId val="275604608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247980800"/>
+        <c:crossAx val="275602816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4227,11 +4245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248523776"/>
-        <c:axId val="248533760"/>
+        <c:axId val="275634048"/>
+        <c:axId val="275635584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248523776"/>
+        <c:axId val="275634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4277,12 +4295,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248533760"/>
+        <c:crossAx val="275635584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248533760"/>
+        <c:axId val="275635584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248523776"/>
+        <c:crossAx val="275634048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4617,11 +4635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248571392"/>
-        <c:axId val="248572928"/>
+        <c:axId val="278212992"/>
+        <c:axId val="278214528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248571392"/>
+        <c:axId val="278212992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4667,12 +4685,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248572928"/>
+        <c:crossAx val="278214528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248572928"/>
+        <c:axId val="278214528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,7 +4735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248571392"/>
+        <c:crossAx val="278212992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5013,11 +5031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248492032"/>
-        <c:axId val="248493568"/>
+        <c:axId val="278256256"/>
+        <c:axId val="278262144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248492032"/>
+        <c:axId val="278256256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5063,12 +5081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248493568"/>
+        <c:crossAx val="278262144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248493568"/>
+        <c:axId val="278262144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5113,7 +5131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248492032"/>
+        <c:crossAx val="278256256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5403,11 +5421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248654464"/>
-        <c:axId val="248656256"/>
+        <c:axId val="277951616"/>
+        <c:axId val="277953152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248654464"/>
+        <c:axId val="277951616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5453,12 +5471,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248656256"/>
+        <c:crossAx val="277953152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248656256"/>
+        <c:axId val="277953152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248654464"/>
+        <c:crossAx val="277951616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5793,11 +5811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248697984"/>
-        <c:axId val="248699520"/>
+        <c:axId val="277998976"/>
+        <c:axId val="278004864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248697984"/>
+        <c:axId val="277998976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5843,12 +5861,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248699520"/>
+        <c:crossAx val="278004864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248699520"/>
+        <c:axId val="278004864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,7 +5911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248697984"/>
+        <c:crossAx val="277998976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6267,11 +6285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247664640"/>
-        <c:axId val="247666176"/>
+        <c:axId val="268737152"/>
+        <c:axId val="268738944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247664640"/>
+        <c:axId val="268737152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6317,12 +6335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247666176"/>
+        <c:crossAx val="268738944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247666176"/>
+        <c:axId val="268738944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6367,7 +6385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247664640"/>
+        <c:crossAx val="268737152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6675,11 +6693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248712576"/>
-        <c:axId val="248734848"/>
+        <c:axId val="278026112"/>
+        <c:axId val="278027648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248712576"/>
+        <c:axId val="278026112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6725,12 +6743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248734848"/>
+        <c:crossAx val="278027648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248734848"/>
+        <c:axId val="278027648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248712576"/>
+        <c:crossAx val="278026112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7065,11 +7083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248764672"/>
-        <c:axId val="248766464"/>
+        <c:axId val="278065920"/>
+        <c:axId val="278067456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248764672"/>
+        <c:axId val="278065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7115,12 +7133,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248766464"/>
+        <c:crossAx val="278067456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248766464"/>
+        <c:axId val="278067456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,7 +7183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248764672"/>
+        <c:crossAx val="278065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7443,11 +7461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248931072"/>
-        <c:axId val="248932608"/>
+        <c:axId val="278166528"/>
+        <c:axId val="278168320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248931072"/>
+        <c:axId val="278166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7493,12 +7511,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248932608"/>
+        <c:crossAx val="278168320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248932608"/>
+        <c:axId val="278168320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7543,7 +7561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248931072"/>
+        <c:crossAx val="278166528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7815,11 +7833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248957952"/>
-        <c:axId val="248853248"/>
+        <c:axId val="278271488"/>
+        <c:axId val="278273024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248957952"/>
+        <c:axId val="278271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7865,12 +7883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248853248"/>
+        <c:crossAx val="278273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248853248"/>
+        <c:axId val="278273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7915,7 +7933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248957952"/>
+        <c:crossAx val="278271488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +8235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248870400"/>
-        <c:axId val="248871936"/>
+        <c:axId val="278298624"/>
+        <c:axId val="278300160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248870400"/>
+        <c:axId val="278298624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8267,12 +8285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248871936"/>
+        <c:crossAx val="278300160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248871936"/>
+        <c:axId val="278300160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8317,7 +8335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248870400"/>
+        <c:crossAx val="278298624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8631,11 +8649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248975744"/>
-        <c:axId val="248977280"/>
+        <c:axId val="278399616"/>
+        <c:axId val="278405504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248975744"/>
+        <c:axId val="278399616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8681,12 +8699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248977280"/>
+        <c:crossAx val="278405504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248977280"/>
+        <c:axId val="278405504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8731,7 +8749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248975744"/>
+        <c:crossAx val="278399616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9045,11 +9063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249005952"/>
-        <c:axId val="249007488"/>
+        <c:axId val="278434176"/>
+        <c:axId val="278435712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249005952"/>
+        <c:axId val="278434176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9095,12 +9113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249007488"/>
+        <c:crossAx val="278435712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249007488"/>
+        <c:axId val="278435712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9145,7 +9163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249005952"/>
+        <c:crossAx val="278434176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9459,11 +9477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249049856"/>
-        <c:axId val="249051392"/>
+        <c:axId val="278449536"/>
+        <c:axId val="278459520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249049856"/>
+        <c:axId val="278449536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9509,12 +9527,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249051392"/>
+        <c:crossAx val="278459520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249051392"/>
+        <c:axId val="278459520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9559,7 +9577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249049856"/>
+        <c:crossAx val="278449536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9885,11 +9903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247712000"/>
-        <c:axId val="247721984"/>
+        <c:axId val="270652544"/>
+        <c:axId val="270654080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247712000"/>
+        <c:axId val="270652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9935,12 +9953,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247721984"/>
+        <c:crossAx val="270654080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247721984"/>
+        <c:axId val="270654080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9985,7 +10003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247712000"/>
+        <c:crossAx val="270652544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10347,11 +10365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247620352"/>
-        <c:axId val="247621888"/>
+        <c:axId val="272477568"/>
+        <c:axId val="275326080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247620352"/>
+        <c:axId val="272477568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10397,12 +10415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247621888"/>
+        <c:crossAx val="275326080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247621888"/>
+        <c:axId val="275326080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10447,7 +10465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247620352"/>
+        <c:crossAx val="272477568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10833,11 +10851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247989376"/>
-        <c:axId val="247990912"/>
+        <c:axId val="275351424"/>
+        <c:axId val="275352960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247989376"/>
+        <c:axId val="275351424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10883,12 +10901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247990912"/>
+        <c:crossAx val="275352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247990912"/>
+        <c:axId val="275352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10933,7 +10951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247989376"/>
+        <c:crossAx val="275351424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11271,11 +11289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248003968"/>
-        <c:axId val="248030336"/>
+        <c:axId val="277758336"/>
+        <c:axId val="277759872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248003968"/>
+        <c:axId val="277758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11321,12 +11339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248030336"/>
+        <c:crossAx val="277759872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248030336"/>
+        <c:axId val="277759872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11371,7 +11389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248003968"/>
+        <c:crossAx val="277758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11703,11 +11721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248047488"/>
-        <c:axId val="248049024"/>
+        <c:axId val="277785216"/>
+        <c:axId val="277791104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248047488"/>
+        <c:axId val="277785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11753,12 +11771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248049024"/>
+        <c:crossAx val="277791104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248049024"/>
+        <c:axId val="277791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11803,7 +11821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248047488"/>
+        <c:crossAx val="277785216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12129,11 +12147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248107392"/>
-        <c:axId val="248108928"/>
+        <c:axId val="277816448"/>
+        <c:axId val="277817984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248107392"/>
+        <c:axId val="277816448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12179,12 +12197,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248108928"/>
+        <c:crossAx val="277817984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248108928"/>
+        <c:axId val="277817984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12229,7 +12247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248107392"/>
+        <c:crossAx val="277816448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12519,11 +12537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247794304"/>
-        <c:axId val="247808384"/>
+        <c:axId val="277831040"/>
+        <c:axId val="277857408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247794304"/>
+        <c:axId val="277831040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12569,12 +12587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247808384"/>
+        <c:crossAx val="277857408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247808384"/>
+        <c:axId val="277857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12619,7 +12637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247794304"/>
+        <c:crossAx val="277831040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12693,7 +12711,7 @@
         <xdr:cNvPr id="27" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12731,7 +12749,7 @@
         <xdr:cNvPr id="28" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12769,7 +12787,7 @@
         <xdr:cNvPr id="29" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12807,7 +12825,7 @@
         <xdr:cNvPr id="30" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12845,7 +12863,7 @@
         <xdr:cNvPr id="31" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12883,7 +12901,7 @@
         <xdr:cNvPr id="32" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12921,7 +12939,7 @@
         <xdr:cNvPr id="33" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12959,7 +12977,7 @@
         <xdr:cNvPr id="34" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12997,7 +13015,7 @@
         <xdr:cNvPr id="35" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13035,7 +13053,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13073,7 +13091,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13111,7 +13129,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13149,7 +13167,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13187,7 +13205,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13225,7 +13243,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13263,7 +13281,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13301,7 +13319,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13339,7 +13357,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13377,7 +13395,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13415,7 +13433,7 @@
         <xdr:cNvPr id="46" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13453,7 +13471,7 @@
         <xdr:cNvPr id="47" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13491,7 +13509,7 @@
         <xdr:cNvPr id="73" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13529,7 +13547,7 @@
         <xdr:cNvPr id="74" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13567,7 +13585,7 @@
         <xdr:cNvPr id="75" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13605,7 +13623,7 @@
         <xdr:cNvPr id="76" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13643,7 +13661,7 @@
         <xdr:cNvPr id="77" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13681,7 +13699,7 @@
         <xdr:cNvPr id="78" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13719,7 +13737,7 @@
         <xdr:cNvPr id="79" name="Group 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13738,7 +13756,7 @@
           <xdr:cNvPr id="80" name="TextBox 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13821,7 +13839,7 @@
           <xdr:cNvPr id="81" name="TextBox 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13890,7 +13908,7 @@
           <xdr:cNvPr id="82" name="TextBox 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19547,7 +19565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19964,28 +19982,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
+      <c r="A1" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -20060,13 +20078,13 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="50"/>
-      <c r="D5" s="78">
+      <c r="D5" s="80">
         <v>0</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="80"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
@@ -20076,21 +20094,21 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="I6" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="B6" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="I6" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
@@ -20103,7 +20121,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
@@ -21421,9 +21439,9 @@
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="58"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
       <c r="S36" s="57"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
@@ -21559,9 +21577,9 @@
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="58"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="57"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
@@ -21749,7 +21767,7 @@
         <v>3.06</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="55">
         <f t="shared" si="0"/>
@@ -21933,16 +21951,16 @@
       <c r="E51" s="35"/>
       <c r="F51" s="53"/>
       <c r="G51" s="55"/>
-      <c r="H51" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="80"/>
+      <c r="H51" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="84"/>
       <c r="J51" s="55">
         <f>G49</f>
         <v>29.969500000000011</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" s="53">
         <f>M49</f>
@@ -21958,13 +21976,13 @@
     </row>
     <row r="52" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="50"/>
-      <c r="D52" s="78">
+      <c r="D52" s="80">
         <v>0.1</v>
       </c>
-      <c r="E52" s="78"/>
+      <c r="E52" s="80"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
@@ -21974,24 +21992,24 @@
       <c r="P52" s="23"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="B53" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I53" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
@@ -22004,7 +22022,7 @@
         <v>0.92</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
@@ -22740,7 +22758,7 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="D71" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71" s="55">
         <f t="shared" si="8"/>
@@ -22779,13 +22797,13 @@
     </row>
     <row r="73" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="50"/>
-      <c r="D73" s="78">
+      <c r="D73" s="80">
         <v>0.2</v>
       </c>
-      <c r="E73" s="78"/>
+      <c r="E73" s="80"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="35"/>
@@ -22798,24 +22816,24 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
+      <c r="B74" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
       <c r="H74" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I74" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
@@ -22828,7 +22846,7 @@
         <v>0.875</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E75" s="53"/>
       <c r="F75" s="53"/>
@@ -23414,7 +23432,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E90" s="55">
         <f t="shared" si="16"/>
@@ -23472,13 +23490,13 @@
     </row>
     <row r="92" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="50"/>
-      <c r="D92" s="78">
+      <c r="D92" s="80">
         <v>0.3</v>
       </c>
-      <c r="E92" s="78"/>
+      <c r="E92" s="80"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="35"/>
@@ -23491,24 +23509,24 @@
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="79"/>
+      <c r="B93" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
       <c r="H93" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I93" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I93" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="78"/>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -23521,7 +23539,7 @@
         <v>1.0680000000000001</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E94" s="53"/>
       <c r="F94" s="53"/>
@@ -24233,7 +24251,7 @@
         <v>1.008</v>
       </c>
       <c r="D112" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E112" s="55">
         <f t="shared" si="24"/>
@@ -24289,13 +24307,13 @@
     </row>
     <row r="114" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C114" s="50"/>
-      <c r="D114" s="78">
+      <c r="D114" s="80">
         <v>0.4</v>
       </c>
-      <c r="E114" s="78"/>
+      <c r="E114" s="80"/>
       <c r="J114" s="35"/>
       <c r="K114" s="35"/>
       <c r="L114" s="35"/>
@@ -24305,24 +24323,24 @@
       <c r="P114" s="23"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="79"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="79"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="79"/>
+      <c r="B115" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="78"/>
       <c r="H115" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I115" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J115" s="79"/>
-      <c r="K115" s="79"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I115" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J115" s="78"/>
+      <c r="K115" s="78"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="78"/>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
       <c r="P115" s="26">
@@ -24338,7 +24356,7 @@
         <v>1.153</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E116" s="53"/>
       <c r="F116" s="53"/>
@@ -25142,7 +25160,7 @@
         <v>1.1779999999999999</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E135" s="55">
         <f t="shared" si="35"/>
@@ -25395,13 +25413,13 @@
     </row>
     <row r="149" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B149" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C149" s="50"/>
-      <c r="D149" s="78">
+      <c r="D149" s="80">
         <v>0.5</v>
       </c>
-      <c r="E149" s="78"/>
+      <c r="E149" s="80"/>
       <c r="J149" s="35"/>
       <c r="K149" s="35"/>
       <c r="L149" s="35"/>
@@ -25411,24 +25429,24 @@
       <c r="P149" s="23"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
+      <c r="B150" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78"/>
       <c r="H150" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I150" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J150" s="79"/>
-      <c r="K150" s="79"/>
-      <c r="L150" s="79"/>
-      <c r="M150" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I150" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J150" s="78"/>
+      <c r="K150" s="78"/>
+      <c r="L150" s="78"/>
+      <c r="M150" s="78"/>
       <c r="N150" s="24"/>
       <c r="O150" s="24"/>
       <c r="P150" s="26">
@@ -25444,7 +25462,7 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="D151" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E151" s="53"/>
       <c r="F151" s="53"/>
@@ -26056,7 +26074,7 @@
         <v>1.163</v>
       </c>
       <c r="D166" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E166" s="55">
         <f t="shared" si="40"/>
@@ -26100,16 +26118,16 @@
       <c r="E167" s="35"/>
       <c r="F167" s="53"/>
       <c r="G167" s="55"/>
-      <c r="H167" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I167" s="80"/>
+      <c r="H167" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I167" s="84"/>
       <c r="J167" s="55" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K167" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L167" s="53" t="e">
         <f>#REF!</f>
@@ -26125,13 +26143,13 @@
     </row>
     <row r="168" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B168" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C168" s="50"/>
-      <c r="D168" s="78">
+      <c r="D168" s="80">
         <v>0.6</v>
       </c>
-      <c r="E168" s="78"/>
+      <c r="E168" s="80"/>
       <c r="J168" s="35"/>
       <c r="K168" s="35"/>
       <c r="L168" s="35"/>
@@ -26141,24 +26159,24 @@
       <c r="P168" s="23"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C169" s="79"/>
-      <c r="D169" s="79"/>
-      <c r="E169" s="79"/>
-      <c r="F169" s="79"/>
-      <c r="G169" s="79"/>
+      <c r="B169" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C169" s="78"/>
+      <c r="D169" s="78"/>
+      <c r="E169" s="78"/>
+      <c r="F169" s="78"/>
+      <c r="G169" s="78"/>
       <c r="H169" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I169" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J169" s="79"/>
-      <c r="K169" s="79"/>
-      <c r="L169" s="79"/>
-      <c r="M169" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I169" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J169" s="78"/>
+      <c r="K169" s="78"/>
+      <c r="L169" s="78"/>
+      <c r="M169" s="78"/>
       <c r="N169" s="24"/>
       <c r="O169" s="24"/>
       <c r="P169" s="26">
@@ -26174,7 +26192,7 @@
         <v>2.0990000000000002</v>
       </c>
       <c r="D170" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E170" s="53"/>
       <c r="F170" s="53"/>
@@ -26782,7 +26800,7 @@
         <v>1.089</v>
       </c>
       <c r="D184" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E184" s="55">
         <f t="shared" si="51"/>
@@ -26814,16 +26832,16 @@
       <c r="E185" s="35"/>
       <c r="F185" s="53"/>
       <c r="G185" s="55"/>
-      <c r="H185" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I185" s="80"/>
+      <c r="H185" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185" s="84"/>
       <c r="J185" s="55" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K185" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L185" s="53" t="e">
         <f>#REF!</f>
@@ -26839,13 +26857,13 @@
     </row>
     <row r="186" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B186" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C186" s="50"/>
-      <c r="D186" s="78">
+      <c r="D186" s="80">
         <v>0.7</v>
       </c>
-      <c r="E186" s="78"/>
+      <c r="E186" s="80"/>
       <c r="J186" s="35"/>
       <c r="K186" s="35"/>
       <c r="L186" s="35"/>
@@ -26855,24 +26873,24 @@
       <c r="P186" s="23"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C187" s="79"/>
-      <c r="D187" s="79"/>
-      <c r="E187" s="79"/>
-      <c r="F187" s="79"/>
-      <c r="G187" s="79"/>
+      <c r="B187" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C187" s="78"/>
+      <c r="D187" s="78"/>
+      <c r="E187" s="78"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="78"/>
       <c r="H187" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I187" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J187" s="79"/>
-      <c r="K187" s="79"/>
-      <c r="L187" s="79"/>
-      <c r="M187" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I187" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J187" s="78"/>
+      <c r="K187" s="78"/>
+      <c r="L187" s="78"/>
+      <c r="M187" s="78"/>
       <c r="N187" s="24"/>
       <c r="O187" s="24"/>
       <c r="P187" s="26">
@@ -26888,7 +26906,7 @@
         <v>1.111</v>
       </c>
       <c r="D188" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E188" s="53"/>
       <c r="F188" s="53"/>
@@ -27474,7 +27492,7 @@
         <v>1.111</v>
       </c>
       <c r="D203" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E203" s="55">
         <f t="shared" si="56"/>
@@ -27530,13 +27548,13 @@
     </row>
     <row r="205" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B205" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C205" s="50"/>
-      <c r="D205" s="78">
+      <c r="D205" s="80">
         <v>0.8</v>
       </c>
-      <c r="E205" s="78"/>
+      <c r="E205" s="80"/>
       <c r="J205" s="35"/>
       <c r="K205" s="35"/>
       <c r="L205" s="35"/>
@@ -27546,24 +27564,24 @@
       <c r="P205" s="23"/>
     </row>
     <row r="206" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B206" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C206" s="79"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="79"/>
-      <c r="F206" s="79"/>
-      <c r="G206" s="79"/>
+      <c r="B206" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C206" s="78"/>
+      <c r="D206" s="78"/>
+      <c r="E206" s="78"/>
+      <c r="F206" s="78"/>
+      <c r="G206" s="78"/>
       <c r="H206" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I206" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J206" s="79"/>
-      <c r="K206" s="79"/>
-      <c r="L206" s="79"/>
-      <c r="M206" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I206" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J206" s="78"/>
+      <c r="K206" s="78"/>
+      <c r="L206" s="78"/>
+      <c r="M206" s="78"/>
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
       <c r="P206" s="26">
@@ -27579,7 +27597,7 @@
         <v>2.7519999999999998</v>
       </c>
       <c r="D207" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E207" s="53"/>
       <c r="F207" s="53"/>
@@ -27972,7 +27990,7 @@
         <v>2.6549999999999998</v>
       </c>
       <c r="D218" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E218" s="55">
         <f t="shared" si="64"/>
@@ -28156,13 +28174,13 @@
     </row>
     <row r="225" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B225" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C225" s="50"/>
-      <c r="D225" s="78">
+      <c r="D225" s="80">
         <v>0.9</v>
       </c>
-      <c r="E225" s="78"/>
+      <c r="E225" s="80"/>
       <c r="J225" s="35"/>
       <c r="K225" s="35"/>
       <c r="L225" s="35"/>
@@ -28172,24 +28190,24 @@
       <c r="P225" s="23"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B226" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C226" s="79"/>
-      <c r="D226" s="79"/>
-      <c r="E226" s="79"/>
-      <c r="F226" s="79"/>
-      <c r="G226" s="79"/>
+      <c r="B226" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C226" s="78"/>
+      <c r="D226" s="78"/>
+      <c r="E226" s="78"/>
+      <c r="F226" s="78"/>
+      <c r="G226" s="78"/>
       <c r="H226" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I226" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J226" s="79"/>
-      <c r="K226" s="79"/>
-      <c r="L226" s="79"/>
-      <c r="M226" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I226" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J226" s="78"/>
+      <c r="K226" s="78"/>
+      <c r="L226" s="78"/>
+      <c r="M226" s="78"/>
       <c r="N226" s="24"/>
       <c r="O226" s="24"/>
       <c r="P226" s="26">
@@ -28205,7 +28223,7 @@
         <v>3.5590000000000002</v>
       </c>
       <c r="D227" s="52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E227" s="53"/>
       <c r="F227" s="53"/>
@@ -28748,7 +28766,7 @@
         <v>3.6619999999999999</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E241" s="55">
         <f t="shared" si="70"/>
@@ -28781,7 +28799,7 @@
         <v>3.6539999999999999</v>
       </c>
       <c r="D242" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E242" s="55">
         <f t="shared" si="70"/>
@@ -28826,13 +28844,13 @@
     </row>
     <row r="244" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B244" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C244" s="50"/>
-      <c r="D244" s="78">
+      <c r="D244" s="80">
         <v>1</v>
       </c>
-      <c r="E244" s="78"/>
+      <c r="E244" s="80"/>
       <c r="J244" s="35"/>
       <c r="K244" s="35"/>
       <c r="L244" s="35"/>
@@ -28842,24 +28860,24 @@
       <c r="P244" s="23"/>
     </row>
     <row r="245" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B245" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C245" s="79"/>
-      <c r="D245" s="79"/>
-      <c r="E245" s="79"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="79"/>
+      <c r="B245" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C245" s="78"/>
+      <c r="D245" s="78"/>
+      <c r="E245" s="78"/>
+      <c r="F245" s="78"/>
+      <c r="G245" s="78"/>
       <c r="H245" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I245" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J245" s="79"/>
-      <c r="K245" s="79"/>
-      <c r="L245" s="79"/>
-      <c r="M245" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I245" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J245" s="78"/>
+      <c r="K245" s="78"/>
+      <c r="L245" s="78"/>
+      <c r="M245" s="78"/>
       <c r="N245" s="24"/>
       <c r="O245" s="24"/>
       <c r="P245" s="26">
@@ -28875,7 +28893,7 @@
         <v>3.044</v>
       </c>
       <c r="D246" s="66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E246" s="53"/>
       <c r="F246" s="53"/>
@@ -29415,7 +29433,7 @@
         <v>3.5790000000000002</v>
       </c>
       <c r="D260" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E260" s="55">
         <f t="shared" si="76"/>
@@ -29463,7 +29481,7 @@
         <v>3.5710000000000002</v>
       </c>
       <c r="D261" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E261" s="55">
         <f t="shared" si="76"/>
@@ -29523,13 +29541,13 @@
     <row r="263" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B263" s="35"/>
       <c r="C263" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D263" s="50"/>
-      <c r="E263" s="78">
+      <c r="E263" s="80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F263" s="78"/>
+      <c r="F263" s="80"/>
       <c r="J263" s="35"/>
       <c r="K263" s="35"/>
       <c r="L263" s="35"/>
@@ -29539,24 +29557,24 @@
       <c r="P263" s="23"/>
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B264" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C264" s="79"/>
-      <c r="D264" s="79"/>
-      <c r="E264" s="79"/>
-      <c r="F264" s="79"/>
-      <c r="G264" s="79"/>
+      <c r="B264" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C264" s="78"/>
+      <c r="D264" s="78"/>
+      <c r="E264" s="78"/>
+      <c r="F264" s="78"/>
+      <c r="G264" s="78"/>
       <c r="H264" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I264" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J264" s="79"/>
-      <c r="K264" s="79"/>
-      <c r="L264" s="79"/>
-      <c r="M264" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I264" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J264" s="78"/>
+      <c r="K264" s="78"/>
+      <c r="L264" s="78"/>
+      <c r="M264" s="78"/>
       <c r="N264" s="24"/>
       <c r="O264" s="24"/>
       <c r="P264" s="26">
@@ -29572,7 +29590,7 @@
         <v>2.573</v>
       </c>
       <c r="D265" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E265" s="53"/>
       <c r="F265" s="53"/>
@@ -30269,7 +30287,7 @@
         <v>3.6080000000000001</v>
       </c>
       <c r="D283" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E283" s="55">
         <f t="shared" si="82"/>
@@ -30312,7 +30330,7 @@
         <v>3.613</v>
       </c>
       <c r="D284" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E284" s="55">
         <f t="shared" si="82"/>
@@ -30671,16 +30689,16 @@
       <c r="E299" s="35"/>
       <c r="F299" s="53"/>
       <c r="G299" s="55"/>
-      <c r="H299" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="I299" s="80"/>
+      <c r="H299" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I299" s="84"/>
       <c r="J299" s="53">
         <f>G298</f>
         <v>50.333500000000001</v>
       </c>
       <c r="K299" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L299" s="53">
         <f>M298</f>
@@ -30715,13 +30733,13 @@
     </row>
     <row r="301" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B301" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C301" s="50"/>
-      <c r="D301" s="78">
+      <c r="D301" s="80">
         <v>1.2</v>
       </c>
-      <c r="E301" s="78"/>
+      <c r="E301" s="80"/>
       <c r="J301" s="35"/>
       <c r="K301" s="35"/>
       <c r="L301" s="35"/>
@@ -30731,24 +30749,24 @@
       <c r="P301" s="23"/>
     </row>
     <row r="302" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B302" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C302" s="79"/>
-      <c r="D302" s="79"/>
-      <c r="E302" s="79"/>
-      <c r="F302" s="79"/>
-      <c r="G302" s="79"/>
+      <c r="B302" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C302" s="78"/>
+      <c r="D302" s="78"/>
+      <c r="E302" s="78"/>
+      <c r="F302" s="78"/>
+      <c r="G302" s="78"/>
       <c r="H302" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I302" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J302" s="79"/>
-      <c r="K302" s="79"/>
-      <c r="L302" s="79"/>
-      <c r="M302" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I302" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J302" s="78"/>
+      <c r="K302" s="78"/>
+      <c r="L302" s="78"/>
+      <c r="M302" s="78"/>
       <c r="N302" s="24"/>
       <c r="O302" s="24"/>
       <c r="P302" s="26">
@@ -30764,7 +30782,7 @@
         <v>2.774</v>
       </c>
       <c r="D303" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E303" s="53"/>
       <c r="F303" s="53"/>
@@ -31461,7 +31479,7 @@
         <v>4.1909999999999998</v>
       </c>
       <c r="D321" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E321" s="55">
         <f t="shared" si="88"/>
@@ -31498,13 +31516,13 @@
     </row>
     <row r="322" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B322" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C322" s="50"/>
-      <c r="D322" s="78">
+      <c r="D322" s="80">
         <v>1.3</v>
       </c>
-      <c r="E322" s="78"/>
+      <c r="E322" s="80"/>
       <c r="J322" s="35"/>
       <c r="K322" s="35"/>
       <c r="L322" s="35"/>
@@ -31514,24 +31532,24 @@
       <c r="P322" s="23"/>
     </row>
     <row r="323" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B323" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C323" s="79"/>
-      <c r="D323" s="79"/>
-      <c r="E323" s="79"/>
-      <c r="F323" s="79"/>
-      <c r="G323" s="79"/>
+      <c r="B323" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C323" s="78"/>
+      <c r="D323" s="78"/>
+      <c r="E323" s="78"/>
+      <c r="F323" s="78"/>
+      <c r="G323" s="78"/>
       <c r="H323" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I323" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J323" s="79"/>
-      <c r="K323" s="79"/>
-      <c r="L323" s="79"/>
-      <c r="M323" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I323" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J323" s="78"/>
+      <c r="K323" s="78"/>
+      <c r="L323" s="78"/>
+      <c r="M323" s="78"/>
       <c r="N323" s="24"/>
       <c r="O323" s="24"/>
       <c r="P323" s="26">
@@ -31547,7 +31565,7 @@
         <v>2.8290000000000002</v>
       </c>
       <c r="D324" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E324" s="53"/>
       <c r="F324" s="53"/>
@@ -32205,7 +32223,7 @@
         <v>4.3639999999999999</v>
       </c>
       <c r="D341" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E341" s="55">
         <f t="shared" si="94"/>
@@ -32242,13 +32260,13 @@
     </row>
     <row r="342" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B342" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C342" s="50"/>
-      <c r="D342" s="78">
+      <c r="D342" s="80">
         <v>1.4</v>
       </c>
-      <c r="E342" s="78"/>
+      <c r="E342" s="80"/>
       <c r="J342" s="35"/>
       <c r="K342" s="35"/>
       <c r="L342" s="35"/>
@@ -32258,24 +32276,24 @@
       <c r="P342" s="23"/>
     </row>
     <row r="343" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B343" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C343" s="79"/>
-      <c r="D343" s="79"/>
-      <c r="E343" s="79"/>
-      <c r="F343" s="79"/>
-      <c r="G343" s="79"/>
+      <c r="B343" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C343" s="78"/>
+      <c r="D343" s="78"/>
+      <c r="E343" s="78"/>
+      <c r="F343" s="78"/>
+      <c r="G343" s="78"/>
       <c r="H343" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I343" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J343" s="79"/>
-      <c r="K343" s="79"/>
-      <c r="L343" s="79"/>
-      <c r="M343" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I343" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J343" s="78"/>
+      <c r="K343" s="78"/>
+      <c r="L343" s="78"/>
+      <c r="M343" s="78"/>
       <c r="N343" s="24"/>
       <c r="O343" s="24"/>
       <c r="P343" s="26">
@@ -32291,7 +32309,7 @@
         <v>2.7890000000000001</v>
       </c>
       <c r="D344" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E344" s="53"/>
       <c r="F344" s="53"/>
@@ -32315,7 +32333,7 @@
         <v>2.78</v>
       </c>
       <c r="D345" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E345" s="55">
         <f>(C344+C345)/2</f>
@@ -32950,7 +32968,7 @@
         <v>3.9590000000000001</v>
       </c>
       <c r="D361" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E361" s="55">
         <f t="shared" si="100"/>
@@ -32987,13 +33005,13 @@
     </row>
     <row r="362" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B362" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C362" s="68"/>
-      <c r="D362" s="84">
+      <c r="D362" s="81">
         <v>1.5</v>
       </c>
-      <c r="E362" s="84"/>
+      <c r="E362" s="81"/>
       <c r="J362" s="35"/>
       <c r="K362" s="35"/>
       <c r="L362" s="35"/>
@@ -33006,24 +33024,24 @@
       <c r="S362" s="30"/>
     </row>
     <row r="363" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B363" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C363" s="79"/>
-      <c r="D363" s="79"/>
-      <c r="E363" s="79"/>
-      <c r="F363" s="79"/>
-      <c r="G363" s="79"/>
+      <c r="B363" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C363" s="78"/>
+      <c r="D363" s="78"/>
+      <c r="E363" s="78"/>
+      <c r="F363" s="78"/>
+      <c r="G363" s="78"/>
       <c r="H363" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I363" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J363" s="79"/>
-      <c r="K363" s="79"/>
-      <c r="L363" s="79"/>
-      <c r="M363" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I363" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J363" s="78"/>
+      <c r="K363" s="78"/>
+      <c r="L363" s="78"/>
+      <c r="M363" s="78"/>
       <c r="N363" s="24"/>
       <c r="O363" s="30"/>
       <c r="P363" s="30" t="e">
@@ -33042,7 +33060,7 @@
         <v>3.0259999999999998</v>
       </c>
       <c r="D364" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E364" s="53"/>
       <c r="F364" s="53"/>
@@ -33489,7 +33507,7 @@
         <v>3.6070000000000002</v>
       </c>
       <c r="D375" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E375" s="55">
         <f t="shared" si="106"/>
@@ -33534,13 +33552,13 @@
     </row>
     <row r="377" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B377" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C377" s="50"/>
-      <c r="D377" s="78">
+      <c r="D377" s="80">
         <v>1.6</v>
       </c>
-      <c r="E377" s="78"/>
+      <c r="E377" s="80"/>
       <c r="J377" s="35"/>
       <c r="K377" s="35"/>
       <c r="L377" s="35"/>
@@ -33550,24 +33568,24 @@
       <c r="P377" s="23"/>
     </row>
     <row r="378" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B378" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C378" s="79"/>
-      <c r="D378" s="79"/>
-      <c r="E378" s="79"/>
-      <c r="F378" s="79"/>
-      <c r="G378" s="79"/>
+      <c r="B378" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C378" s="78"/>
+      <c r="D378" s="78"/>
+      <c r="E378" s="78"/>
+      <c r="F378" s="78"/>
+      <c r="G378" s="78"/>
       <c r="H378" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I378" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J378" s="79"/>
-      <c r="K378" s="79"/>
-      <c r="L378" s="79"/>
-      <c r="M378" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I378" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J378" s="78"/>
+      <c r="K378" s="78"/>
+      <c r="L378" s="78"/>
+      <c r="M378" s="78"/>
       <c r="N378" s="24"/>
       <c r="O378" s="24"/>
       <c r="P378" s="26" t="e">
@@ -33583,7 +33601,7 @@
         <v>1.232</v>
       </c>
       <c r="D379" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E379" s="53"/>
       <c r="F379" s="53"/>
@@ -34003,7 +34021,7 @@
         <v>3.6520000000000001</v>
       </c>
       <c r="D390" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E390" s="55">
         <f t="shared" si="112"/>
@@ -34051,7 +34069,7 @@
         <v>3.6469999999999998</v>
       </c>
       <c r="D391" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E391" s="55">
         <f t="shared" si="112"/>
@@ -34097,7 +34115,7 @@
       <c r="F392" s="53"/>
       <c r="G392" s="55"/>
       <c r="H392" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I392" s="53"/>
       <c r="J392" s="53" t="e">
@@ -34105,7 +34123,7 @@
         <v>#REF!</v>
       </c>
       <c r="K392" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L392" s="53" t="e">
         <f>#REF!</f>
@@ -34122,13 +34140,13 @@
     </row>
     <row r="393" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B393" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C393" s="50"/>
-      <c r="D393" s="78">
+      <c r="D393" s="80">
         <v>1.7</v>
       </c>
-      <c r="E393" s="78"/>
+      <c r="E393" s="80"/>
       <c r="J393" s="35"/>
       <c r="K393" s="35"/>
       <c r="L393" s="35"/>
@@ -34138,24 +34156,24 @@
       <c r="P393" s="23"/>
     </row>
     <row r="394" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B394" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C394" s="79"/>
-      <c r="D394" s="79"/>
-      <c r="E394" s="79"/>
-      <c r="F394" s="79"/>
-      <c r="G394" s="79"/>
+      <c r="B394" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C394" s="78"/>
+      <c r="D394" s="78"/>
+      <c r="E394" s="78"/>
+      <c r="F394" s="78"/>
+      <c r="G394" s="78"/>
       <c r="H394" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I394" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J394" s="79"/>
-      <c r="K394" s="79"/>
-      <c r="L394" s="79"/>
-      <c r="M394" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I394" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J394" s="78"/>
+      <c r="K394" s="78"/>
+      <c r="L394" s="78"/>
+      <c r="M394" s="78"/>
       <c r="N394" s="24"/>
       <c r="O394" s="24"/>
       <c r="P394" s="26" t="e">
@@ -34171,7 +34189,7 @@
         <v>1.37</v>
       </c>
       <c r="D395" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E395" s="53"/>
       <c r="F395" s="53"/>
@@ -34617,7 +34635,7 @@
         <v>3.4940000000000002</v>
       </c>
       <c r="D406" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E406" s="55">
         <f t="shared" si="118"/>
@@ -34651,7 +34669,7 @@
       <c r="F407" s="53"/>
       <c r="G407" s="55"/>
       <c r="H407" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I407" s="53"/>
       <c r="J407" s="53" t="e">
@@ -34659,7 +34677,7 @@
         <v>#REF!</v>
       </c>
       <c r="K407" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L407" s="53" t="e">
         <f>#REF!</f>
@@ -34676,13 +34694,13 @@
     </row>
     <row r="408" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B408" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C408" s="50"/>
-      <c r="D408" s="78">
+      <c r="D408" s="80">
         <v>1.8</v>
       </c>
-      <c r="E408" s="78"/>
+      <c r="E408" s="80"/>
       <c r="J408" s="35"/>
       <c r="K408" s="35"/>
       <c r="L408" s="35"/>
@@ -34692,24 +34710,24 @@
       <c r="P408" s="23"/>
     </row>
     <row r="409" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B409" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C409" s="79"/>
-      <c r="D409" s="79"/>
-      <c r="E409" s="79"/>
-      <c r="F409" s="79"/>
-      <c r="G409" s="79"/>
+      <c r="B409" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C409" s="78"/>
+      <c r="D409" s="78"/>
+      <c r="E409" s="78"/>
+      <c r="F409" s="78"/>
+      <c r="G409" s="78"/>
       <c r="H409" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I409" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J409" s="79"/>
-      <c r="K409" s="79"/>
-      <c r="L409" s="79"/>
-      <c r="M409" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I409" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J409" s="78"/>
+      <c r="K409" s="78"/>
+      <c r="L409" s="78"/>
+      <c r="M409" s="78"/>
       <c r="N409" s="24"/>
       <c r="O409" s="24"/>
       <c r="P409" s="26" t="e">
@@ -34725,7 +34743,7 @@
         <v>1.68</v>
       </c>
       <c r="D410" s="55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E410" s="53"/>
       <c r="F410" s="53"/>
@@ -35158,7 +35176,7 @@
         <v>3.58</v>
       </c>
       <c r="D421" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E421" s="55">
         <f t="shared" si="124"/>
@@ -35199,13 +35217,13 @@
     </row>
     <row r="423" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B423" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C423" s="50"/>
-      <c r="D423" s="78">
+      <c r="D423" s="80">
         <v>1.9</v>
       </c>
-      <c r="E423" s="78"/>
+      <c r="E423" s="80"/>
       <c r="J423" s="35"/>
       <c r="K423" s="35"/>
       <c r="L423" s="35"/>
@@ -35215,24 +35233,24 @@
       <c r="P423" s="23"/>
     </row>
     <row r="424" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B424" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C424" s="79"/>
-      <c r="D424" s="79"/>
-      <c r="E424" s="79"/>
-      <c r="F424" s="79"/>
-      <c r="G424" s="79"/>
+      <c r="B424" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C424" s="78"/>
+      <c r="D424" s="78"/>
+      <c r="E424" s="78"/>
+      <c r="F424" s="78"/>
+      <c r="G424" s="78"/>
       <c r="H424" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I424" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J424" s="79"/>
-      <c r="K424" s="79"/>
-      <c r="L424" s="79"/>
-      <c r="M424" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I424" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J424" s="78"/>
+      <c r="K424" s="78"/>
+      <c r="L424" s="78"/>
+      <c r="M424" s="78"/>
       <c r="N424" s="24"/>
       <c r="O424" s="24"/>
       <c r="P424" s="26" t="e">
@@ -35248,7 +35266,7 @@
         <v>2.5059999999999998</v>
       </c>
       <c r="D425" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E425" s="53"/>
       <c r="F425" s="53"/>
@@ -35758,7 +35776,7 @@
         <v>1.5760000000000001</v>
       </c>
       <c r="D438" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E438" s="55">
         <f t="shared" si="130"/>
@@ -35798,13 +35816,13 @@
     </row>
     <row r="439" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B439" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C439" s="50"/>
-      <c r="D439" s="78">
+      <c r="D439" s="80">
         <v>2</v>
       </c>
-      <c r="E439" s="78"/>
+      <c r="E439" s="80"/>
       <c r="J439" s="35"/>
       <c r="K439" s="35"/>
       <c r="L439" s="35"/>
@@ -35814,24 +35832,24 @@
       <c r="P439" s="23"/>
     </row>
     <row r="440" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B440" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C440" s="79"/>
-      <c r="D440" s="79"/>
-      <c r="E440" s="79"/>
-      <c r="F440" s="79"/>
-      <c r="G440" s="79"/>
+      <c r="B440" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C440" s="78"/>
+      <c r="D440" s="78"/>
+      <c r="E440" s="78"/>
+      <c r="F440" s="78"/>
+      <c r="G440" s="78"/>
       <c r="H440" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I440" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J440" s="79"/>
-      <c r="K440" s="79"/>
-      <c r="L440" s="79"/>
-      <c r="M440" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I440" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J440" s="78"/>
+      <c r="K440" s="78"/>
+      <c r="L440" s="78"/>
+      <c r="M440" s="78"/>
       <c r="N440" s="24"/>
       <c r="O440" s="24"/>
       <c r="P440" s="26" t="e">
@@ -35847,7 +35865,7 @@
         <v>3.7320000000000002</v>
       </c>
       <c r="D441" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E441" s="53"/>
       <c r="F441" s="53"/>
@@ -36281,7 +36299,7 @@
         <v>2.6320000000000001</v>
       </c>
       <c r="D452" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E452" s="55">
         <f t="shared" si="136"/>
@@ -36322,13 +36340,13 @@
     </row>
     <row r="453" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B453" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C453" s="50"/>
-      <c r="D453" s="78">
+      <c r="D453" s="80">
         <v>2.1</v>
       </c>
-      <c r="E453" s="78"/>
+      <c r="E453" s="80"/>
       <c r="J453" s="35"/>
       <c r="K453" s="35"/>
       <c r="L453" s="35"/>
@@ -36338,24 +36356,24 @@
       <c r="P453" s="23"/>
     </row>
     <row r="454" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B454" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C454" s="79"/>
-      <c r="D454" s="79"/>
-      <c r="E454" s="79"/>
-      <c r="F454" s="79"/>
-      <c r="G454" s="79"/>
+      <c r="B454" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C454" s="78"/>
+      <c r="D454" s="78"/>
+      <c r="E454" s="78"/>
+      <c r="F454" s="78"/>
+      <c r="G454" s="78"/>
       <c r="H454" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I454" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J454" s="79"/>
-      <c r="K454" s="79"/>
-      <c r="L454" s="79"/>
-      <c r="M454" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I454" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J454" s="78"/>
+      <c r="K454" s="78"/>
+      <c r="L454" s="78"/>
+      <c r="M454" s="78"/>
       <c r="N454" s="24"/>
       <c r="O454" s="24"/>
       <c r="P454" s="26" t="e">
@@ -36371,7 +36389,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="D455" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E455" s="53"/>
       <c r="F455" s="53"/>
@@ -36792,7 +36810,7 @@
         <v>2.669</v>
       </c>
       <c r="D467" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E467" s="55">
         <f t="shared" si="142"/>
@@ -36834,13 +36852,13 @@
     </row>
     <row r="469" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B469" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C469" s="50"/>
-      <c r="D469" s="78">
+      <c r="D469" s="80">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E469" s="78"/>
+      <c r="E469" s="80"/>
       <c r="J469" s="35"/>
       <c r="K469" s="35"/>
       <c r="L469" s="35"/>
@@ -36850,24 +36868,24 @@
       <c r="P469" s="23"/>
     </row>
     <row r="470" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B470" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C470" s="79"/>
-      <c r="D470" s="79"/>
-      <c r="E470" s="79"/>
-      <c r="F470" s="79"/>
-      <c r="G470" s="79"/>
+      <c r="B470" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C470" s="78"/>
+      <c r="D470" s="78"/>
+      <c r="E470" s="78"/>
+      <c r="F470" s="78"/>
+      <c r="G470" s="78"/>
       <c r="H470" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I470" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J470" s="79"/>
-      <c r="K470" s="79"/>
-      <c r="L470" s="79"/>
-      <c r="M470" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I470" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J470" s="78"/>
+      <c r="K470" s="78"/>
+      <c r="L470" s="78"/>
+      <c r="M470" s="78"/>
       <c r="N470" s="24"/>
       <c r="O470" s="24"/>
       <c r="P470" s="26" t="e">
@@ -36883,7 +36901,7 @@
         <v>2.4830000000000001</v>
       </c>
       <c r="D471" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E471" s="53"/>
       <c r="F471" s="53"/>
@@ -37250,7 +37268,7 @@
         <v>3.8540000000000001</v>
       </c>
       <c r="D482" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E482" s="55">
         <f t="shared" si="148"/>
@@ -37326,13 +37344,13 @@
     </row>
     <row r="484" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B484" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C484" s="50"/>
-      <c r="D484" s="78">
+      <c r="D484" s="80">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E484" s="78"/>
+      <c r="E484" s="80"/>
       <c r="J484" s="35"/>
       <c r="K484" s="35"/>
       <c r="L484" s="35"/>
@@ -37342,24 +37360,24 @@
       <c r="P484" s="23"/>
     </row>
     <row r="485" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B485" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C485" s="79"/>
-      <c r="D485" s="79"/>
-      <c r="E485" s="79"/>
-      <c r="F485" s="79"/>
-      <c r="G485" s="79"/>
+      <c r="B485" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C485" s="78"/>
+      <c r="D485" s="78"/>
+      <c r="E485" s="78"/>
+      <c r="F485" s="78"/>
+      <c r="G485" s="78"/>
       <c r="H485" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I485" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J485" s="79"/>
-      <c r="K485" s="79"/>
-      <c r="L485" s="79"/>
-      <c r="M485" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I485" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J485" s="78"/>
+      <c r="K485" s="78"/>
+      <c r="L485" s="78"/>
+      <c r="M485" s="78"/>
       <c r="N485" s="24"/>
       <c r="O485" s="24"/>
       <c r="P485" s="26" t="e">
@@ -37375,7 +37393,7 @@
         <v>2.9580000000000002</v>
       </c>
       <c r="D486" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E486" s="53"/>
       <c r="F486" s="53"/>
@@ -37884,7 +37902,7 @@
         <v>3.903</v>
       </c>
       <c r="D499" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E499" s="55">
         <f t="shared" si="154"/>
@@ -37911,13 +37929,13 @@
     </row>
     <row r="501" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B501" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C501" s="50"/>
-      <c r="D501" s="78">
+      <c r="D501" s="80">
         <v>2.4</v>
       </c>
-      <c r="E501" s="78"/>
+      <c r="E501" s="80"/>
       <c r="J501" s="35"/>
       <c r="K501" s="35"/>
       <c r="L501" s="35"/>
@@ -37927,24 +37945,24 @@
       <c r="P501" s="23"/>
     </row>
     <row r="502" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B502" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C502" s="79"/>
-      <c r="D502" s="79"/>
-      <c r="E502" s="79"/>
-      <c r="F502" s="79"/>
-      <c r="G502" s="79"/>
+      <c r="B502" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C502" s="78"/>
+      <c r="D502" s="78"/>
+      <c r="E502" s="78"/>
+      <c r="F502" s="78"/>
+      <c r="G502" s="78"/>
       <c r="H502" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I502" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J502" s="79"/>
-      <c r="K502" s="79"/>
-      <c r="L502" s="79"/>
-      <c r="M502" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I502" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J502" s="78"/>
+      <c r="K502" s="78"/>
+      <c r="L502" s="78"/>
+      <c r="M502" s="78"/>
       <c r="N502" s="24"/>
       <c r="O502" s="24"/>
       <c r="P502" s="26">
@@ -37960,7 +37978,7 @@
         <v>3.1850000000000001</v>
       </c>
       <c r="D503" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E503" s="53"/>
       <c r="F503" s="53"/>
@@ -38439,7 +38457,7 @@
         <v>3.94</v>
       </c>
       <c r="D515" s="55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E515" s="55">
         <f t="shared" si="160"/>
@@ -38753,13 +38771,13 @@
     </row>
     <row r="529" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B529" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C529" s="50"/>
-      <c r="D529" s="78">
+      <c r="D529" s="80">
         <v>2.5</v>
       </c>
-      <c r="E529" s="78"/>
+      <c r="E529" s="80"/>
       <c r="J529" s="35"/>
       <c r="K529" s="35"/>
       <c r="L529" s="35"/>
@@ -38770,24 +38788,24 @@
       <c r="Q529" s="44"/>
     </row>
     <row r="530" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B530" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C530" s="79"/>
-      <c r="D530" s="79"/>
-      <c r="E530" s="79"/>
-      <c r="F530" s="79"/>
-      <c r="G530" s="79"/>
+      <c r="B530" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C530" s="78"/>
+      <c r="D530" s="78"/>
+      <c r="E530" s="78"/>
+      <c r="F530" s="78"/>
+      <c r="G530" s="78"/>
       <c r="H530" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I530" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J530" s="79"/>
-      <c r="K530" s="79"/>
-      <c r="L530" s="79"/>
-      <c r="M530" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I530" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J530" s="78"/>
+      <c r="K530" s="78"/>
+      <c r="L530" s="78"/>
+      <c r="M530" s="78"/>
       <c r="N530" s="73"/>
       <c r="O530" s="73"/>
       <c r="P530" s="26">
@@ -38804,7 +38822,7 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="D531" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E531" s="53"/>
       <c r="F531" s="53"/>
@@ -39315,7 +39333,7 @@
         <v>4.2469999999999999</v>
       </c>
       <c r="D544" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E544" s="55">
         <f t="shared" si="166"/>
@@ -39416,13 +39434,13 @@
     </row>
     <row r="548" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B548" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C548" s="50"/>
-      <c r="D548" s="78">
+      <c r="D548" s="80">
         <v>2.5550000000000002</v>
       </c>
-      <c r="E548" s="78"/>
+      <c r="E548" s="80"/>
       <c r="J548" s="35"/>
       <c r="K548" s="35"/>
       <c r="L548" s="35"/>
@@ -39433,24 +39451,24 @@
       <c r="Q548" s="44"/>
     </row>
     <row r="549" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B549" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C549" s="79"/>
-      <c r="D549" s="79"/>
-      <c r="E549" s="79"/>
-      <c r="F549" s="79"/>
-      <c r="G549" s="79"/>
+      <c r="B549" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C549" s="78"/>
+      <c r="D549" s="78"/>
+      <c r="E549" s="78"/>
+      <c r="F549" s="78"/>
+      <c r="G549" s="78"/>
       <c r="H549" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I549" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="J549" s="79"/>
-      <c r="K549" s="79"/>
-      <c r="L549" s="79"/>
-      <c r="M549" s="79"/>
+        <v>74</v>
+      </c>
+      <c r="I549" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J549" s="78"/>
+      <c r="K549" s="78"/>
+      <c r="L549" s="78"/>
+      <c r="M549" s="78"/>
       <c r="N549" s="73"/>
       <c r="O549" s="73"/>
       <c r="P549" s="26">
@@ -39467,7 +39485,7 @@
         <v>2.242</v>
       </c>
       <c r="D550" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E550" s="53"/>
       <c r="F550" s="53"/>
@@ -39978,7 +39996,7 @@
         <v>4.399</v>
       </c>
       <c r="D563" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E563" s="55">
         <f t="shared" si="172"/>
@@ -40266,7 +40284,7 @@
       <c r="F576" s="53"/>
       <c r="G576" s="55"/>
       <c r="H576" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I576" s="53"/>
       <c r="J576" s="53">
@@ -40274,7 +40292,7 @@
         <v>62.586500000000001</v>
       </c>
       <c r="K576" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L576" s="53">
         <f>M575</f>
@@ -54184,6 +54202,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B530:G530"/>
+    <mergeCell ref="I530:M530"/>
+    <mergeCell ref="D548:E548"/>
+    <mergeCell ref="B549:G549"/>
+    <mergeCell ref="I549:M549"/>
+    <mergeCell ref="D453:E453"/>
+    <mergeCell ref="B454:G454"/>
+    <mergeCell ref="I454:M454"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="B470:G470"/>
+    <mergeCell ref="I470:M470"/>
+    <mergeCell ref="D484:E484"/>
+    <mergeCell ref="B485:G485"/>
+    <mergeCell ref="I485:M485"/>
+    <mergeCell ref="D501:E501"/>
+    <mergeCell ref="B502:G502"/>
+    <mergeCell ref="I502:M502"/>
+    <mergeCell ref="D529:E529"/>
+    <mergeCell ref="I169:M169"/>
+    <mergeCell ref="D408:E408"/>
+    <mergeCell ref="B409:G409"/>
+    <mergeCell ref="I409:M409"/>
+    <mergeCell ref="B264:G264"/>
+    <mergeCell ref="I264:M264"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="B302:G302"/>
+    <mergeCell ref="I302:M302"/>
+    <mergeCell ref="D322:E322"/>
+    <mergeCell ref="B323:G323"/>
+    <mergeCell ref="I323:M323"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="B378:G378"/>
+    <mergeCell ref="I378:M378"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="I115:M115"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="I245:M245"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="I150:M150"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="D423:E423"/>
+    <mergeCell ref="B424:G424"/>
+    <mergeCell ref="I424:M424"/>
+    <mergeCell ref="D439:E439"/>
+    <mergeCell ref="B363:G363"/>
+    <mergeCell ref="I363:M363"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="B394:G394"/>
+    <mergeCell ref="I394:M394"/>
     <mergeCell ref="B440:G440"/>
     <mergeCell ref="I440:M440"/>
     <mergeCell ref="A1:T1"/>
@@ -54200,78 +54290,6 @@
     <mergeCell ref="B343:G343"/>
     <mergeCell ref="I343:M343"/>
     <mergeCell ref="D362:E362"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="D423:E423"/>
-    <mergeCell ref="B424:G424"/>
-    <mergeCell ref="I424:M424"/>
-    <mergeCell ref="D439:E439"/>
-    <mergeCell ref="B363:G363"/>
-    <mergeCell ref="I363:M363"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="I115:M115"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="I245:M245"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="I150:M150"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="I169:M169"/>
-    <mergeCell ref="D408:E408"/>
-    <mergeCell ref="B409:G409"/>
-    <mergeCell ref="I409:M409"/>
-    <mergeCell ref="B264:G264"/>
-    <mergeCell ref="I264:M264"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="B302:G302"/>
-    <mergeCell ref="I302:M302"/>
-    <mergeCell ref="D322:E322"/>
-    <mergeCell ref="B323:G323"/>
-    <mergeCell ref="I323:M323"/>
-    <mergeCell ref="D377:E377"/>
-    <mergeCell ref="B378:G378"/>
-    <mergeCell ref="I378:M378"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="B394:G394"/>
-    <mergeCell ref="I394:M394"/>
-    <mergeCell ref="D548:E548"/>
-    <mergeCell ref="B549:G549"/>
-    <mergeCell ref="I549:M549"/>
-    <mergeCell ref="D453:E453"/>
-    <mergeCell ref="B454:G454"/>
-    <mergeCell ref="I454:M454"/>
-    <mergeCell ref="D469:E469"/>
-    <mergeCell ref="B470:G470"/>
-    <mergeCell ref="I470:M470"/>
-    <mergeCell ref="D484:E484"/>
-    <mergeCell ref="B485:G485"/>
-    <mergeCell ref="I485:M485"/>
-    <mergeCell ref="D501:E501"/>
-    <mergeCell ref="B502:G502"/>
-    <mergeCell ref="I502:M502"/>
-    <mergeCell ref="D529:E529"/>
-    <mergeCell ref="B530:G530"/>
-    <mergeCell ref="I530:M530"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -54281,41 +54299,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -54327,8 +54366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54376,7 +54415,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
@@ -54385,7 +54424,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -54403,7 +54442,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H2" s="3">
         <v>1.2</v>
@@ -54423,7 +54462,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -54441,7 +54480,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H3" s="3">
         <v>1.2</v>
@@ -54461,7 +54500,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -54479,7 +54518,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="3">
         <v>1.2</v>
@@ -54499,7 +54538,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -54517,7 +54556,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="3">
         <v>1.2</v>
@@ -54537,7 +54576,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -54555,7 +54594,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3">
         <v>1.2</v>
@@ -54575,7 +54614,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -54593,7 +54632,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H7" s="3">
         <v>1.2</v>
@@ -54613,7 +54652,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -54631,7 +54670,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="3">
         <v>1.2</v>
@@ -54651,7 +54690,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="32">
         <v>700</v>
@@ -54669,7 +54708,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="3">
         <v>1.2</v>
@@ -54689,7 +54728,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="32">
         <v>800</v>
@@ -54707,7 +54746,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3">
         <v>1.2</v>
@@ -54727,7 +54766,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="32">
         <v>900</v>
@@ -54745,7 +54784,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H11" s="3">
         <v>1.2</v>
@@ -54765,7 +54804,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="32">
         <v>1000</v>
@@ -54783,7 +54822,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" s="3">
         <v>1.2</v>
@@ -54803,7 +54842,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="32">
         <v>1100</v>
@@ -54821,7 +54860,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3">
         <v>1.2</v>
@@ -54841,7 +54880,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="34">
         <v>1200</v>
@@ -54859,7 +54898,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3">
         <v>1.2</v>
@@ -54879,7 +54918,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="34">
         <v>1300</v>
@@ -54897,7 +54936,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H15" s="3">
         <v>1.2</v>
@@ -54917,7 +54956,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2">
         <v>1400</v>
@@ -54935,7 +54974,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3">
         <v>1.2</v>
@@ -54955,7 +54994,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2">
         <v>1500</v>
@@ -54973,7 +55012,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H17" s="3">
         <v>1.2</v>
@@ -54993,7 +55032,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2">
         <v>1600</v>
@@ -55011,7 +55050,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3">
         <v>1.2</v>
@@ -55031,7 +55070,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2">
         <v>1700</v>
@@ -55049,7 +55088,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3">
         <v>1.2</v>
@@ -55069,7 +55108,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2">
         <v>1800</v>
@@ -55087,7 +55126,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3">
         <v>1.2</v>
@@ -55107,7 +55146,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2">
         <v>1900</v>
@@ -55125,7 +55164,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3">
         <v>1.2</v>
@@ -55145,7 +55184,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2">
         <v>2000</v>
@@ -55163,7 +55202,7 @@
         <v>25</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3">
         <v>1.2</v>
@@ -55183,7 +55222,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2">
         <v>2100</v>
@@ -55201,7 +55240,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="3">
         <v>1.2</v>
@@ -55221,7 +55260,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" s="37">
         <v>2200</v>
@@ -55239,7 +55278,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="3">
         <v>1.2</v>
@@ -55259,7 +55298,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="37">
         <v>2300</v>
@@ -55277,7 +55316,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H25" s="3">
         <v>1.2</v>
@@ -55297,7 +55336,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="37">
         <v>2400</v>
@@ -55315,7 +55354,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H26" s="3">
         <v>1.2</v>
@@ -55335,7 +55374,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="37">
         <v>2500</v>
@@ -55353,7 +55392,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H27" s="3">
         <v>1.2</v>
@@ -55373,7 +55412,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="37">
         <v>2555</v>
@@ -55391,7 +55430,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H28" s="3">
         <v>1.2</v>
@@ -55629,7 +55668,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55655,7 +55694,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -55672,10 +55711,10 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="6">
-        <v>-6.92</v>
+        <v>-1.5</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
@@ -55686,11 +55725,11 @@
       <c r="E2" s="7">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>112</v>
+      <c r="F2" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>26</v>
@@ -55719,18 +55758,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55738,7 +55777,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55746,7 +55785,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55754,7 +55793,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55762,15 +55801,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55778,7 +55817,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55786,7 +55825,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -55794,7 +55833,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55802,7 +55841,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -55810,7 +55849,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55818,7 +55857,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -55826,7 +55865,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -55834,7 +55873,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -55842,7 +55881,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -55850,7 +55889,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55858,7 +55897,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55866,7 +55905,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55874,7 +55913,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55882,7 +55921,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55890,7 +55929,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55898,7 +55937,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -55906,7 +55945,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -55932,82 +55971,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -56044,18 +56083,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56063,7 +56102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -56071,7 +56110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56079,7 +56118,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56087,7 +56126,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -56095,7 +56134,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -56103,7 +56142,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -56111,7 +56150,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -56119,10 +56158,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -56130,7 +56169,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -56138,7 +56177,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56146,7 +56185,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -56154,7 +56193,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -56162,31 +56201,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -56194,7 +56233,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -56202,7 +56241,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -56210,15 +56249,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -56226,7 +56265,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -56234,7 +56273,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -56242,7 +56281,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -56250,7 +56289,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -56258,7 +56297,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -56266,7 +56305,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Kadar Khal/Kadar_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Kadar Khal/Kadar_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="158">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -497,9 +497,6 @@
     <t>KDK26</t>
   </si>
   <si>
-    <t>Kadar khal</t>
-  </si>
-  <si>
     <t>Re-excavation of Kadar Khal from km. 0.000 to km. 2.555 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
   </si>
   <si>
@@ -923,16 +920,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,11 +938,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1563,11 +1560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268153216"/>
-        <c:axId val="268154752"/>
+        <c:axId val="288167808"/>
+        <c:axId val="288169344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268153216"/>
+        <c:axId val="288167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1613,12 +1610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268154752"/>
+        <c:crossAx val="288169344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268154752"/>
+        <c:axId val="288169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268153216"/>
+        <c:crossAx val="288167808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1977,11 +1974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275466112"/>
-        <c:axId val="275467648"/>
+        <c:axId val="218840448"/>
+        <c:axId val="218870912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275466112"/>
+        <c:axId val="218840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2027,12 +2024,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275467648"/>
+        <c:crossAx val="218870912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275467648"/>
+        <c:axId val="218870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275466112"/>
+        <c:crossAx val="218840448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,11 +2400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275493248"/>
-        <c:axId val="275494784"/>
+        <c:axId val="218888064"/>
+        <c:axId val="218889600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275493248"/>
+        <c:axId val="218888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2453,12 +2450,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275494784"/>
+        <c:crossAx val="218889600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275494784"/>
+        <c:axId val="218889600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275493248"/>
+        <c:crossAx val="218888064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2901,11 +2898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275511936"/>
-        <c:axId val="275534208"/>
+        <c:axId val="245207424"/>
+        <c:axId val="245208960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275511936"/>
+        <c:axId val="245207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2951,12 +2948,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275534208"/>
+        <c:crossAx val="245208960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275534208"/>
+        <c:axId val="245208960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +2998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275511936"/>
+        <c:crossAx val="245207424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3357,11 +3354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275567744"/>
-        <c:axId val="275569280"/>
+        <c:axId val="245217920"/>
+        <c:axId val="245236096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275567744"/>
+        <c:axId val="245217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3407,12 +3404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275569280"/>
+        <c:crossAx val="245236096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275569280"/>
+        <c:axId val="245236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275567744"/>
+        <c:crossAx val="245217920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3801,11 +3798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275602816"/>
-        <c:axId val="275604608"/>
+        <c:axId val="245261440"/>
+        <c:axId val="245262976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275602816"/>
+        <c:axId val="245261440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3851,12 +3848,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275604608"/>
+        <c:crossAx val="245262976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275604608"/>
+        <c:axId val="245262976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275602816"/>
+        <c:crossAx val="245261440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4245,11 +4242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275634048"/>
-        <c:axId val="275635584"/>
+        <c:axId val="245292416"/>
+        <c:axId val="257098880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275634048"/>
+        <c:axId val="245292416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4295,12 +4292,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275635584"/>
+        <c:crossAx val="257098880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275635584"/>
+        <c:axId val="257098880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,7 +4342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275634048"/>
+        <c:crossAx val="245292416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4635,11 +4632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278212992"/>
-        <c:axId val="278214528"/>
+        <c:axId val="257116032"/>
+        <c:axId val="257117568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278212992"/>
+        <c:axId val="257116032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4685,12 +4682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278214528"/>
+        <c:crossAx val="257117568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278214528"/>
+        <c:axId val="257117568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +4732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278212992"/>
+        <c:crossAx val="257116032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5031,11 +5028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278256256"/>
-        <c:axId val="278262144"/>
+        <c:axId val="257159552"/>
+        <c:axId val="257161088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278256256"/>
+        <c:axId val="257159552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5081,12 +5078,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278262144"/>
+        <c:crossAx val="257161088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278262144"/>
+        <c:axId val="257161088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,7 +5128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278256256"/>
+        <c:crossAx val="257159552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5421,11 +5418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277951616"/>
-        <c:axId val="277953152"/>
+        <c:axId val="258570880"/>
+        <c:axId val="258576768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277951616"/>
+        <c:axId val="258570880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5471,12 +5468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277953152"/>
+        <c:crossAx val="258576768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277953152"/>
+        <c:axId val="258576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,7 +5518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277951616"/>
+        <c:crossAx val="258570880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5811,11 +5808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277998976"/>
-        <c:axId val="278004864"/>
+        <c:axId val="258933888"/>
+        <c:axId val="258935424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277998976"/>
+        <c:axId val="258933888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5861,12 +5858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278004864"/>
+        <c:crossAx val="258935424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278004864"/>
+        <c:axId val="258935424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5911,7 +5908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277998976"/>
+        <c:crossAx val="258933888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6285,11 +6282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268737152"/>
-        <c:axId val="268738944"/>
+        <c:axId val="245109120"/>
+        <c:axId val="245110656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268737152"/>
+        <c:axId val="245109120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6335,12 +6332,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268738944"/>
+        <c:crossAx val="245110656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268738944"/>
+        <c:axId val="245110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6385,7 +6382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268737152"/>
+        <c:crossAx val="245109120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6693,11 +6690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278026112"/>
-        <c:axId val="278027648"/>
+        <c:axId val="258964864"/>
+        <c:axId val="258974848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278026112"/>
+        <c:axId val="258964864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6743,12 +6740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278027648"/>
+        <c:crossAx val="258974848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278027648"/>
+        <c:axId val="258974848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6793,7 +6790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278026112"/>
+        <c:crossAx val="258964864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7083,11 +7080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278065920"/>
-        <c:axId val="278067456"/>
+        <c:axId val="259008768"/>
+        <c:axId val="259010560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278065920"/>
+        <c:axId val="259008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7133,12 +7130,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278067456"/>
+        <c:crossAx val="259010560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278067456"/>
+        <c:axId val="259010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278065920"/>
+        <c:crossAx val="259008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7461,11 +7458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278166528"/>
-        <c:axId val="278168320"/>
+        <c:axId val="259035904"/>
+        <c:axId val="259037440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278166528"/>
+        <c:axId val="259035904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7511,12 +7508,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278168320"/>
+        <c:crossAx val="259037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278168320"/>
+        <c:axId val="259037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7561,7 +7558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278166528"/>
+        <c:crossAx val="259035904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7833,11 +7830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278271488"/>
-        <c:axId val="278273024"/>
+        <c:axId val="259070976"/>
+        <c:axId val="259072768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278271488"/>
+        <c:axId val="259070976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7883,12 +7880,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278273024"/>
+        <c:crossAx val="259072768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278273024"/>
+        <c:axId val="259072768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7933,7 +7930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278271488"/>
+        <c:crossAx val="259070976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8235,11 +8232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278298624"/>
-        <c:axId val="278300160"/>
+        <c:axId val="259102208"/>
+        <c:axId val="259103744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278298624"/>
+        <c:axId val="259102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8285,12 +8282,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278300160"/>
+        <c:crossAx val="259103744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278300160"/>
+        <c:axId val="259103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +8332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278298624"/>
+        <c:crossAx val="259102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8649,11 +8646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278399616"/>
-        <c:axId val="278405504"/>
+        <c:axId val="261038464"/>
+        <c:axId val="261040000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278399616"/>
+        <c:axId val="261038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8699,12 +8696,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278405504"/>
+        <c:crossAx val="261040000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278405504"/>
+        <c:axId val="261040000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8749,7 +8746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278399616"/>
+        <c:crossAx val="261038464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9063,11 +9060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278434176"/>
-        <c:axId val="278435712"/>
+        <c:axId val="261085056"/>
+        <c:axId val="261086592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278434176"/>
+        <c:axId val="261085056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9113,12 +9110,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278435712"/>
+        <c:crossAx val="261086592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278435712"/>
+        <c:axId val="261086592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9163,7 +9160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278434176"/>
+        <c:crossAx val="261085056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9477,11 +9474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278449536"/>
-        <c:axId val="278459520"/>
+        <c:axId val="267080832"/>
+        <c:axId val="267082368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278449536"/>
+        <c:axId val="267080832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9527,12 +9524,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278459520"/>
+        <c:crossAx val="267082368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278459520"/>
+        <c:axId val="267082368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9577,7 +9574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278449536"/>
+        <c:crossAx val="267080832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9903,11 +9900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270652544"/>
-        <c:axId val="270654080"/>
+        <c:axId val="245127808"/>
+        <c:axId val="245129600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270652544"/>
+        <c:axId val="245127808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9953,12 +9950,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270654080"/>
+        <c:crossAx val="245129600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270654080"/>
+        <c:axId val="245129600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,7 +10000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270652544"/>
+        <c:crossAx val="245127808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10365,11 +10362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272477568"/>
-        <c:axId val="275326080"/>
+        <c:axId val="245159040"/>
+        <c:axId val="245160576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272477568"/>
+        <c:axId val="245159040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10415,12 +10412,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275326080"/>
+        <c:crossAx val="245160576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275326080"/>
+        <c:axId val="245160576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10465,7 +10462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272477568"/>
+        <c:crossAx val="245159040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10851,11 +10848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275351424"/>
-        <c:axId val="275352960"/>
+        <c:axId val="257179008"/>
+        <c:axId val="257184896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275351424"/>
+        <c:axId val="257179008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10901,12 +10898,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275352960"/>
+        <c:crossAx val="257184896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275352960"/>
+        <c:axId val="257184896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10951,7 +10948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275351424"/>
+        <c:crossAx val="257179008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11289,11 +11286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277758336"/>
-        <c:axId val="277759872"/>
+        <c:axId val="258496384"/>
+        <c:axId val="258497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277758336"/>
+        <c:axId val="258496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11339,12 +11336,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277759872"/>
+        <c:crossAx val="258497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277759872"/>
+        <c:axId val="258497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11389,7 +11386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277758336"/>
+        <c:crossAx val="258496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11721,11 +11718,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277785216"/>
-        <c:axId val="277791104"/>
+        <c:axId val="258519424"/>
+        <c:axId val="258520960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277785216"/>
+        <c:axId val="258519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11771,12 +11768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277791104"/>
+        <c:crossAx val="258520960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277791104"/>
+        <c:axId val="258520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11821,7 +11818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277785216"/>
+        <c:crossAx val="258519424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12147,11 +12144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277816448"/>
-        <c:axId val="277817984"/>
+        <c:axId val="288193152"/>
+        <c:axId val="288207232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277816448"/>
+        <c:axId val="288193152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12197,12 +12194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277817984"/>
+        <c:crossAx val="288207232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277817984"/>
+        <c:axId val="288207232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12247,7 +12244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277816448"/>
+        <c:crossAx val="288193152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12537,11 +12534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="277831040"/>
-        <c:axId val="277857408"/>
+        <c:axId val="288662656"/>
+        <c:axId val="288664192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="277831040"/>
+        <c:axId val="288662656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12587,12 +12584,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277857408"/>
+        <c:crossAx val="288664192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277857408"/>
+        <c:axId val="288664192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12637,7 +12634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277831040"/>
+        <c:crossAx val="288662656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12711,7 +12708,7 @@
         <xdr:cNvPr id="27" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12749,7 +12746,7 @@
         <xdr:cNvPr id="28" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12787,7 +12784,7 @@
         <xdr:cNvPr id="29" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12825,7 +12822,7 @@
         <xdr:cNvPr id="30" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12863,7 +12860,7 @@
         <xdr:cNvPr id="31" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12901,7 +12898,7 @@
         <xdr:cNvPr id="32" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12939,7 +12936,7 @@
         <xdr:cNvPr id="33" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12977,7 +12974,7 @@
         <xdr:cNvPr id="34" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13015,7 +13012,7 @@
         <xdr:cNvPr id="35" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13053,7 +13050,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13091,7 +13088,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13129,7 +13126,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13167,7 +13164,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13205,7 +13202,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13243,7 +13240,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13281,7 +13278,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13319,7 +13316,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13357,7 +13354,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13395,7 +13392,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13433,7 +13430,7 @@
         <xdr:cNvPr id="46" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13471,7 +13468,7 @@
         <xdr:cNvPr id="47" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13509,7 +13506,7 @@
         <xdr:cNvPr id="73" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13547,7 +13544,7 @@
         <xdr:cNvPr id="74" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13585,7 +13582,7 @@
         <xdr:cNvPr id="75" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13623,7 +13620,7 @@
         <xdr:cNvPr id="76" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13661,7 +13658,7 @@
         <xdr:cNvPr id="77" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13699,7 +13696,7 @@
         <xdr:cNvPr id="78" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13737,7 +13734,7 @@
         <xdr:cNvPr id="79" name="Group 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13756,7 +13753,7 @@
           <xdr:cNvPr id="80" name="TextBox 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13839,7 +13836,7 @@
           <xdr:cNvPr id="81" name="TextBox 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13908,7 +13905,7 @@
           <xdr:cNvPr id="82" name="TextBox 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19565,7 +19562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19982,28 +19979,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -20094,21 +20091,21 @@
       <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="I6" s="78" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="I6" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
@@ -21951,10 +21948,10 @@
       <c r="E51" s="35"/>
       <c r="F51" s="53"/>
       <c r="G51" s="55"/>
-      <c r="H51" s="84" t="s">
+      <c r="H51" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="84"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="55">
         <f>G49</f>
         <v>29.969500000000011</v>
@@ -21992,24 +21989,24 @@
       <c r="P52" s="23"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="78" t="s">
+      <c r="I53" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
@@ -22816,24 +22813,24 @@
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
       <c r="H74" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I74" s="78" t="s">
+      <c r="I74" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
@@ -23509,24 +23506,24 @@
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I93" s="78" t="s">
+      <c r="I93" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J93" s="78"/>
-      <c r="K93" s="78"/>
-      <c r="L93" s="78"/>
-      <c r="M93" s="78"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -24323,24 +24320,24 @@
       <c r="P114" s="23"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="78" t="s">
+      <c r="B115" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
       <c r="H115" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I115" s="78" t="s">
+      <c r="I115" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J115" s="78"/>
-      <c r="K115" s="78"/>
-      <c r="L115" s="78"/>
-      <c r="M115" s="78"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="79"/>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
       <c r="P115" s="26">
@@ -25429,24 +25426,24 @@
       <c r="P149" s="23"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="78" t="s">
+      <c r="B150" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
+      <c r="C150" s="79"/>
+      <c r="D150" s="79"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="79"/>
       <c r="H150" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I150" s="78" t="s">
+      <c r="I150" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J150" s="78"/>
-      <c r="K150" s="78"/>
-      <c r="L150" s="78"/>
-      <c r="M150" s="78"/>
+      <c r="J150" s="79"/>
+      <c r="K150" s="79"/>
+      <c r="L150" s="79"/>
+      <c r="M150" s="79"/>
       <c r="N150" s="24"/>
       <c r="O150" s="24"/>
       <c r="P150" s="26">
@@ -26118,10 +26115,10 @@
       <c r="E167" s="35"/>
       <c r="F167" s="53"/>
       <c r="G167" s="55"/>
-      <c r="H167" s="84" t="s">
+      <c r="H167" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I167" s="84"/>
+      <c r="I167" s="81"/>
       <c r="J167" s="55" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26159,24 +26156,24 @@
       <c r="P168" s="23"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="78" t="s">
+      <c r="B169" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
-      <c r="E169" s="78"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="78"/>
+      <c r="C169" s="79"/>
+      <c r="D169" s="79"/>
+      <c r="E169" s="79"/>
+      <c r="F169" s="79"/>
+      <c r="G169" s="79"/>
       <c r="H169" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I169" s="78" t="s">
+      <c r="I169" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J169" s="78"/>
-      <c r="K169" s="78"/>
-      <c r="L169" s="78"/>
-      <c r="M169" s="78"/>
+      <c r="J169" s="79"/>
+      <c r="K169" s="79"/>
+      <c r="L169" s="79"/>
+      <c r="M169" s="79"/>
       <c r="N169" s="24"/>
       <c r="O169" s="24"/>
       <c r="P169" s="26">
@@ -26832,10 +26829,10 @@
       <c r="E185" s="35"/>
       <c r="F185" s="53"/>
       <c r="G185" s="55"/>
-      <c r="H185" s="84" t="s">
+      <c r="H185" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I185" s="84"/>
+      <c r="I185" s="81"/>
       <c r="J185" s="55" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26873,24 +26870,24 @@
       <c r="P186" s="23"/>
     </row>
     <row r="187" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B187" s="78" t="s">
+      <c r="B187" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="78"/>
-      <c r="G187" s="78"/>
+      <c r="C187" s="79"/>
+      <c r="D187" s="79"/>
+      <c r="E187" s="79"/>
+      <c r="F187" s="79"/>
+      <c r="G187" s="79"/>
       <c r="H187" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I187" s="78" t="s">
+      <c r="I187" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J187" s="78"/>
-      <c r="K187" s="78"/>
-      <c r="L187" s="78"/>
-      <c r="M187" s="78"/>
+      <c r="J187" s="79"/>
+      <c r="K187" s="79"/>
+      <c r="L187" s="79"/>
+      <c r="M187" s="79"/>
       <c r="N187" s="24"/>
       <c r="O187" s="24"/>
       <c r="P187" s="26">
@@ -27564,24 +27561,24 @@
       <c r="P205" s="23"/>
     </row>
     <row r="206" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B206" s="78" t="s">
+      <c r="B206" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C206" s="78"/>
-      <c r="D206" s="78"/>
-      <c r="E206" s="78"/>
-      <c r="F206" s="78"/>
-      <c r="G206" s="78"/>
+      <c r="C206" s="79"/>
+      <c r="D206" s="79"/>
+      <c r="E206" s="79"/>
+      <c r="F206" s="79"/>
+      <c r="G206" s="79"/>
       <c r="H206" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I206" s="78" t="s">
+      <c r="I206" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J206" s="78"/>
-      <c r="K206" s="78"/>
-      <c r="L206" s="78"/>
-      <c r="M206" s="78"/>
+      <c r="J206" s="79"/>
+      <c r="K206" s="79"/>
+      <c r="L206" s="79"/>
+      <c r="M206" s="79"/>
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
       <c r="P206" s="26">
@@ -28190,24 +28187,24 @@
       <c r="P225" s="23"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B226" s="78" t="s">
+      <c r="B226" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="78"/>
-      <c r="E226" s="78"/>
-      <c r="F226" s="78"/>
-      <c r="G226" s="78"/>
+      <c r="C226" s="79"/>
+      <c r="D226" s="79"/>
+      <c r="E226" s="79"/>
+      <c r="F226" s="79"/>
+      <c r="G226" s="79"/>
       <c r="H226" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I226" s="78" t="s">
+      <c r="I226" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J226" s="78"/>
-      <c r="K226" s="78"/>
-      <c r="L226" s="78"/>
-      <c r="M226" s="78"/>
+      <c r="J226" s="79"/>
+      <c r="K226" s="79"/>
+      <c r="L226" s="79"/>
+      <c r="M226" s="79"/>
       <c r="N226" s="24"/>
       <c r="O226" s="24"/>
       <c r="P226" s="26">
@@ -28860,24 +28857,24 @@
       <c r="P244" s="23"/>
     </row>
     <row r="245" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B245" s="78" t="s">
+      <c r="B245" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C245" s="78"/>
-      <c r="D245" s="78"/>
-      <c r="E245" s="78"/>
-      <c r="F245" s="78"/>
-      <c r="G245" s="78"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="79"/>
+      <c r="E245" s="79"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="79"/>
       <c r="H245" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I245" s="78" t="s">
+      <c r="I245" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J245" s="78"/>
-      <c r="K245" s="78"/>
-      <c r="L245" s="78"/>
-      <c r="M245" s="78"/>
+      <c r="J245" s="79"/>
+      <c r="K245" s="79"/>
+      <c r="L245" s="79"/>
+      <c r="M245" s="79"/>
       <c r="N245" s="24"/>
       <c r="O245" s="24"/>
       <c r="P245" s="26">
@@ -29557,24 +29554,24 @@
       <c r="P263" s="23"/>
     </row>
     <row r="264" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B264" s="78" t="s">
+      <c r="B264" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C264" s="78"/>
-      <c r="D264" s="78"/>
-      <c r="E264" s="78"/>
-      <c r="F264" s="78"/>
-      <c r="G264" s="78"/>
+      <c r="C264" s="79"/>
+      <c r="D264" s="79"/>
+      <c r="E264" s="79"/>
+      <c r="F264" s="79"/>
+      <c r="G264" s="79"/>
       <c r="H264" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I264" s="78" t="s">
+      <c r="I264" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J264" s="78"/>
-      <c r="K264" s="78"/>
-      <c r="L264" s="78"/>
-      <c r="M264" s="78"/>
+      <c r="J264" s="79"/>
+      <c r="K264" s="79"/>
+      <c r="L264" s="79"/>
+      <c r="M264" s="79"/>
       <c r="N264" s="24"/>
       <c r="O264" s="24"/>
       <c r="P264" s="26">
@@ -30689,10 +30686,10 @@
       <c r="E299" s="35"/>
       <c r="F299" s="53"/>
       <c r="G299" s="55"/>
-      <c r="H299" s="84" t="s">
+      <c r="H299" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I299" s="84"/>
+      <c r="I299" s="81"/>
       <c r="J299" s="53">
         <f>G298</f>
         <v>50.333500000000001</v>
@@ -30749,24 +30746,24 @@
       <c r="P301" s="23"/>
     </row>
     <row r="302" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B302" s="78" t="s">
+      <c r="B302" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C302" s="78"/>
-      <c r="D302" s="78"/>
-      <c r="E302" s="78"/>
-      <c r="F302" s="78"/>
-      <c r="G302" s="78"/>
+      <c r="C302" s="79"/>
+      <c r="D302" s="79"/>
+      <c r="E302" s="79"/>
+      <c r="F302" s="79"/>
+      <c r="G302" s="79"/>
       <c r="H302" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I302" s="78" t="s">
+      <c r="I302" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J302" s="78"/>
-      <c r="K302" s="78"/>
-      <c r="L302" s="78"/>
-      <c r="M302" s="78"/>
+      <c r="J302" s="79"/>
+      <c r="K302" s="79"/>
+      <c r="L302" s="79"/>
+      <c r="M302" s="79"/>
       <c r="N302" s="24"/>
       <c r="O302" s="24"/>
       <c r="P302" s="26">
@@ -31532,24 +31529,24 @@
       <c r="P322" s="23"/>
     </row>
     <row r="323" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B323" s="78" t="s">
+      <c r="B323" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C323" s="78"/>
-      <c r="D323" s="78"/>
-      <c r="E323" s="78"/>
-      <c r="F323" s="78"/>
-      <c r="G323" s="78"/>
+      <c r="C323" s="79"/>
+      <c r="D323" s="79"/>
+      <c r="E323" s="79"/>
+      <c r="F323" s="79"/>
+      <c r="G323" s="79"/>
       <c r="H323" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I323" s="78" t="s">
+      <c r="I323" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J323" s="78"/>
-      <c r="K323" s="78"/>
-      <c r="L323" s="78"/>
-      <c r="M323" s="78"/>
+      <c r="J323" s="79"/>
+      <c r="K323" s="79"/>
+      <c r="L323" s="79"/>
+      <c r="M323" s="79"/>
       <c r="N323" s="24"/>
       <c r="O323" s="24"/>
       <c r="P323" s="26">
@@ -32276,24 +32273,24 @@
       <c r="P342" s="23"/>
     </row>
     <row r="343" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B343" s="78" t="s">
+      <c r="B343" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C343" s="78"/>
-      <c r="D343" s="78"/>
-      <c r="E343" s="78"/>
-      <c r="F343" s="78"/>
-      <c r="G343" s="78"/>
+      <c r="C343" s="79"/>
+      <c r="D343" s="79"/>
+      <c r="E343" s="79"/>
+      <c r="F343" s="79"/>
+      <c r="G343" s="79"/>
       <c r="H343" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I343" s="78" t="s">
+      <c r="I343" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J343" s="78"/>
-      <c r="K343" s="78"/>
-      <c r="L343" s="78"/>
-      <c r="M343" s="78"/>
+      <c r="J343" s="79"/>
+      <c r="K343" s="79"/>
+      <c r="L343" s="79"/>
+      <c r="M343" s="79"/>
       <c r="N343" s="24"/>
       <c r="O343" s="24"/>
       <c r="P343" s="26">
@@ -33008,10 +33005,10 @@
         <v>70</v>
       </c>
       <c r="C362" s="68"/>
-      <c r="D362" s="81">
+      <c r="D362" s="85">
         <v>1.5</v>
       </c>
-      <c r="E362" s="81"/>
+      <c r="E362" s="85"/>
       <c r="J362" s="35"/>
       <c r="K362" s="35"/>
       <c r="L362" s="35"/>
@@ -33024,24 +33021,24 @@
       <c r="S362" s="30"/>
     </row>
     <row r="363" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B363" s="78" t="s">
+      <c r="B363" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C363" s="78"/>
-      <c r="D363" s="78"/>
-      <c r="E363" s="78"/>
-      <c r="F363" s="78"/>
-      <c r="G363" s="78"/>
+      <c r="C363" s="79"/>
+      <c r="D363" s="79"/>
+      <c r="E363" s="79"/>
+      <c r="F363" s="79"/>
+      <c r="G363" s="79"/>
       <c r="H363" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I363" s="78" t="s">
+      <c r="I363" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J363" s="78"/>
-      <c r="K363" s="78"/>
-      <c r="L363" s="78"/>
-      <c r="M363" s="78"/>
+      <c r="J363" s="79"/>
+      <c r="K363" s="79"/>
+      <c r="L363" s="79"/>
+      <c r="M363" s="79"/>
       <c r="N363" s="24"/>
       <c r="O363" s="30"/>
       <c r="P363" s="30" t="e">
@@ -33568,24 +33565,24 @@
       <c r="P377" s="23"/>
     </row>
     <row r="378" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B378" s="78" t="s">
+      <c r="B378" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C378" s="78"/>
-      <c r="D378" s="78"/>
-      <c r="E378" s="78"/>
-      <c r="F378" s="78"/>
-      <c r="G378" s="78"/>
+      <c r="C378" s="79"/>
+      <c r="D378" s="79"/>
+      <c r="E378" s="79"/>
+      <c r="F378" s="79"/>
+      <c r="G378" s="79"/>
       <c r="H378" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I378" s="78" t="s">
+      <c r="I378" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J378" s="78"/>
-      <c r="K378" s="78"/>
-      <c r="L378" s="78"/>
-      <c r="M378" s="78"/>
+      <c r="J378" s="79"/>
+      <c r="K378" s="79"/>
+      <c r="L378" s="79"/>
+      <c r="M378" s="79"/>
       <c r="N378" s="24"/>
       <c r="O378" s="24"/>
       <c r="P378" s="26" t="e">
@@ -34156,24 +34153,24 @@
       <c r="P393" s="23"/>
     </row>
     <row r="394" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B394" s="78" t="s">
+      <c r="B394" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C394" s="78"/>
-      <c r="D394" s="78"/>
-      <c r="E394" s="78"/>
-      <c r="F394" s="78"/>
-      <c r="G394" s="78"/>
+      <c r="C394" s="79"/>
+      <c r="D394" s="79"/>
+      <c r="E394" s="79"/>
+      <c r="F394" s="79"/>
+      <c r="G394" s="79"/>
       <c r="H394" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I394" s="78" t="s">
+      <c r="I394" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J394" s="78"/>
-      <c r="K394" s="78"/>
-      <c r="L394" s="78"/>
-      <c r="M394" s="78"/>
+      <c r="J394" s="79"/>
+      <c r="K394" s="79"/>
+      <c r="L394" s="79"/>
+      <c r="M394" s="79"/>
       <c r="N394" s="24"/>
       <c r="O394" s="24"/>
       <c r="P394" s="26" t="e">
@@ -34710,24 +34707,24 @@
       <c r="P408" s="23"/>
     </row>
     <row r="409" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B409" s="78" t="s">
+      <c r="B409" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C409" s="78"/>
-      <c r="D409" s="78"/>
-      <c r="E409" s="78"/>
-      <c r="F409" s="78"/>
-      <c r="G409" s="78"/>
+      <c r="C409" s="79"/>
+      <c r="D409" s="79"/>
+      <c r="E409" s="79"/>
+      <c r="F409" s="79"/>
+      <c r="G409" s="79"/>
       <c r="H409" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I409" s="78" t="s">
+      <c r="I409" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J409" s="78"/>
-      <c r="K409" s="78"/>
-      <c r="L409" s="78"/>
-      <c r="M409" s="78"/>
+      <c r="J409" s="79"/>
+      <c r="K409" s="79"/>
+      <c r="L409" s="79"/>
+      <c r="M409" s="79"/>
       <c r="N409" s="24"/>
       <c r="O409" s="24"/>
       <c r="P409" s="26" t="e">
@@ -35233,24 +35230,24 @@
       <c r="P423" s="23"/>
     </row>
     <row r="424" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B424" s="78" t="s">
+      <c r="B424" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C424" s="78"/>
-      <c r="D424" s="78"/>
-      <c r="E424" s="78"/>
-      <c r="F424" s="78"/>
-      <c r="G424" s="78"/>
+      <c r="C424" s="79"/>
+      <c r="D424" s="79"/>
+      <c r="E424" s="79"/>
+      <c r="F424" s="79"/>
+      <c r="G424" s="79"/>
       <c r="H424" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I424" s="78" t="s">
+      <c r="I424" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J424" s="78"/>
-      <c r="K424" s="78"/>
-      <c r="L424" s="78"/>
-      <c r="M424" s="78"/>
+      <c r="J424" s="79"/>
+      <c r="K424" s="79"/>
+      <c r="L424" s="79"/>
+      <c r="M424" s="79"/>
       <c r="N424" s="24"/>
       <c r="O424" s="24"/>
       <c r="P424" s="26" t="e">
@@ -35832,24 +35829,24 @@
       <c r="P439" s="23"/>
     </row>
     <row r="440" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B440" s="78" t="s">
+      <c r="B440" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C440" s="78"/>
-      <c r="D440" s="78"/>
-      <c r="E440" s="78"/>
-      <c r="F440" s="78"/>
-      <c r="G440" s="78"/>
+      <c r="C440" s="79"/>
+      <c r="D440" s="79"/>
+      <c r="E440" s="79"/>
+      <c r="F440" s="79"/>
+      <c r="G440" s="79"/>
       <c r="H440" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I440" s="78" t="s">
+      <c r="I440" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J440" s="78"/>
-      <c r="K440" s="78"/>
-      <c r="L440" s="78"/>
-      <c r="M440" s="78"/>
+      <c r="J440" s="79"/>
+      <c r="K440" s="79"/>
+      <c r="L440" s="79"/>
+      <c r="M440" s="79"/>
       <c r="N440" s="24"/>
       <c r="O440" s="24"/>
       <c r="P440" s="26" t="e">
@@ -36356,24 +36353,24 @@
       <c r="P453" s="23"/>
     </row>
     <row r="454" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B454" s="78" t="s">
+      <c r="B454" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C454" s="78"/>
-      <c r="D454" s="78"/>
-      <c r="E454" s="78"/>
-      <c r="F454" s="78"/>
-      <c r="G454" s="78"/>
+      <c r="C454" s="79"/>
+      <c r="D454" s="79"/>
+      <c r="E454" s="79"/>
+      <c r="F454" s="79"/>
+      <c r="G454" s="79"/>
       <c r="H454" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I454" s="78" t="s">
+      <c r="I454" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J454" s="78"/>
-      <c r="K454" s="78"/>
-      <c r="L454" s="78"/>
-      <c r="M454" s="78"/>
+      <c r="J454" s="79"/>
+      <c r="K454" s="79"/>
+      <c r="L454" s="79"/>
+      <c r="M454" s="79"/>
       <c r="N454" s="24"/>
       <c r="O454" s="24"/>
       <c r="P454" s="26" t="e">
@@ -36868,24 +36865,24 @@
       <c r="P469" s="23"/>
     </row>
     <row r="470" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B470" s="78" t="s">
+      <c r="B470" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C470" s="78"/>
-      <c r="D470" s="78"/>
-      <c r="E470" s="78"/>
-      <c r="F470" s="78"/>
-      <c r="G470" s="78"/>
+      <c r="C470" s="79"/>
+      <c r="D470" s="79"/>
+      <c r="E470" s="79"/>
+      <c r="F470" s="79"/>
+      <c r="G470" s="79"/>
       <c r="H470" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I470" s="78" t="s">
+      <c r="I470" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J470" s="78"/>
-      <c r="K470" s="78"/>
-      <c r="L470" s="78"/>
-      <c r="M470" s="78"/>
+      <c r="J470" s="79"/>
+      <c r="K470" s="79"/>
+      <c r="L470" s="79"/>
+      <c r="M470" s="79"/>
       <c r="N470" s="24"/>
       <c r="O470" s="24"/>
       <c r="P470" s="26" t="e">
@@ -37360,24 +37357,24 @@
       <c r="P484" s="23"/>
     </row>
     <row r="485" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B485" s="78" t="s">
+      <c r="B485" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C485" s="78"/>
-      <c r="D485" s="78"/>
-      <c r="E485" s="78"/>
-      <c r="F485" s="78"/>
-      <c r="G485" s="78"/>
+      <c r="C485" s="79"/>
+      <c r="D485" s="79"/>
+      <c r="E485" s="79"/>
+      <c r="F485" s="79"/>
+      <c r="G485" s="79"/>
       <c r="H485" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I485" s="78" t="s">
+      <c r="I485" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J485" s="78"/>
-      <c r="K485" s="78"/>
-      <c r="L485" s="78"/>
-      <c r="M485" s="78"/>
+      <c r="J485" s="79"/>
+      <c r="K485" s="79"/>
+      <c r="L485" s="79"/>
+      <c r="M485" s="79"/>
       <c r="N485" s="24"/>
       <c r="O485" s="24"/>
       <c r="P485" s="26" t="e">
@@ -37945,24 +37942,24 @@
       <c r="P501" s="23"/>
     </row>
     <row r="502" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B502" s="78" t="s">
+      <c r="B502" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C502" s="78"/>
-      <c r="D502" s="78"/>
-      <c r="E502" s="78"/>
-      <c r="F502" s="78"/>
-      <c r="G502" s="78"/>
+      <c r="C502" s="79"/>
+      <c r="D502" s="79"/>
+      <c r="E502" s="79"/>
+      <c r="F502" s="79"/>
+      <c r="G502" s="79"/>
       <c r="H502" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I502" s="78" t="s">
+      <c r="I502" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J502" s="78"/>
-      <c r="K502" s="78"/>
-      <c r="L502" s="78"/>
-      <c r="M502" s="78"/>
+      <c r="J502" s="79"/>
+      <c r="K502" s="79"/>
+      <c r="L502" s="79"/>
+      <c r="M502" s="79"/>
       <c r="N502" s="24"/>
       <c r="O502" s="24"/>
       <c r="P502" s="26">
@@ -38788,24 +38785,24 @@
       <c r="Q529" s="44"/>
     </row>
     <row r="530" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B530" s="78" t="s">
+      <c r="B530" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C530" s="78"/>
-      <c r="D530" s="78"/>
-      <c r="E530" s="78"/>
-      <c r="F530" s="78"/>
-      <c r="G530" s="78"/>
+      <c r="C530" s="79"/>
+      <c r="D530" s="79"/>
+      <c r="E530" s="79"/>
+      <c r="F530" s="79"/>
+      <c r="G530" s="79"/>
       <c r="H530" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I530" s="78" t="s">
+      <c r="I530" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J530" s="78"/>
-      <c r="K530" s="78"/>
-      <c r="L530" s="78"/>
-      <c r="M530" s="78"/>
+      <c r="J530" s="79"/>
+      <c r="K530" s="79"/>
+      <c r="L530" s="79"/>
+      <c r="M530" s="79"/>
       <c r="N530" s="73"/>
       <c r="O530" s="73"/>
       <c r="P530" s="26">
@@ -39451,24 +39448,24 @@
       <c r="Q548" s="44"/>
     </row>
     <row r="549" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B549" s="78" t="s">
+      <c r="B549" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C549" s="78"/>
-      <c r="D549" s="78"/>
-      <c r="E549" s="78"/>
-      <c r="F549" s="78"/>
-      <c r="G549" s="78"/>
+      <c r="C549" s="79"/>
+      <c r="D549" s="79"/>
+      <c r="E549" s="79"/>
+      <c r="F549" s="79"/>
+      <c r="G549" s="79"/>
       <c r="H549" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I549" s="78" t="s">
+      <c r="I549" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="J549" s="78"/>
-      <c r="K549" s="78"/>
-      <c r="L549" s="78"/>
-      <c r="M549" s="78"/>
+      <c r="J549" s="79"/>
+      <c r="K549" s="79"/>
+      <c r="L549" s="79"/>
+      <c r="M549" s="79"/>
       <c r="N549" s="73"/>
       <c r="O549" s="73"/>
       <c r="P549" s="26">
@@ -54202,23 +54199,61 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B530:G530"/>
-    <mergeCell ref="I530:M530"/>
-    <mergeCell ref="D548:E548"/>
-    <mergeCell ref="B549:G549"/>
-    <mergeCell ref="I549:M549"/>
-    <mergeCell ref="D453:E453"/>
-    <mergeCell ref="B454:G454"/>
-    <mergeCell ref="I454:M454"/>
-    <mergeCell ref="D469:E469"/>
-    <mergeCell ref="B470:G470"/>
-    <mergeCell ref="I470:M470"/>
-    <mergeCell ref="D484:E484"/>
-    <mergeCell ref="B485:G485"/>
-    <mergeCell ref="I485:M485"/>
-    <mergeCell ref="D501:E501"/>
-    <mergeCell ref="B502:G502"/>
-    <mergeCell ref="I502:M502"/>
+    <mergeCell ref="B440:G440"/>
+    <mergeCell ref="I440:M440"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="I206:M206"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="I226:M226"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="B343:G343"/>
+    <mergeCell ref="I343:M343"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D439:E439"/>
+    <mergeCell ref="B363:G363"/>
+    <mergeCell ref="I363:M363"/>
+    <mergeCell ref="D393:E393"/>
+    <mergeCell ref="B394:G394"/>
+    <mergeCell ref="I394:M394"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="D423:E423"/>
+    <mergeCell ref="B424:G424"/>
+    <mergeCell ref="I424:M424"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="I150:M150"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="I245:M245"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="I187:M187"/>
+    <mergeCell ref="I378:M378"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="I115:M115"/>
     <mergeCell ref="D529:E529"/>
     <mergeCell ref="I169:M169"/>
     <mergeCell ref="D408:E408"/>
@@ -54235,61 +54270,23 @@
     <mergeCell ref="I323:M323"/>
     <mergeCell ref="D377:E377"/>
     <mergeCell ref="B378:G378"/>
-    <mergeCell ref="I378:M378"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="I115:M115"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="I245:M245"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="I187:M187"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="I150:M150"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="D423:E423"/>
-    <mergeCell ref="B424:G424"/>
-    <mergeCell ref="I424:M424"/>
-    <mergeCell ref="D439:E439"/>
-    <mergeCell ref="B363:G363"/>
-    <mergeCell ref="I363:M363"/>
-    <mergeCell ref="D393:E393"/>
-    <mergeCell ref="B394:G394"/>
-    <mergeCell ref="I394:M394"/>
-    <mergeCell ref="B440:G440"/>
-    <mergeCell ref="I440:M440"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="I206:M206"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="I226:M226"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="B343:G343"/>
-    <mergeCell ref="I343:M343"/>
-    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D484:E484"/>
+    <mergeCell ref="B485:G485"/>
+    <mergeCell ref="I485:M485"/>
+    <mergeCell ref="D501:E501"/>
+    <mergeCell ref="B502:G502"/>
+    <mergeCell ref="I502:M502"/>
+    <mergeCell ref="D453:E453"/>
+    <mergeCell ref="B454:G454"/>
+    <mergeCell ref="I454:M454"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="B470:G470"/>
+    <mergeCell ref="I470:M470"/>
+    <mergeCell ref="B530:G530"/>
+    <mergeCell ref="I530:M530"/>
+    <mergeCell ref="D548:E548"/>
+    <mergeCell ref="B549:G549"/>
+    <mergeCell ref="I549:M549"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -54301,7 +54298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -54313,15 +54310,15 @@
     <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="85" t="s">
-        <v>152</v>
+      <c r="C1" s="78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54329,32 +54326,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="85" t="s">
-        <v>155</v>
+      <c r="C3" s="78" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>157</v>
+      <c r="C4" s="78" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -54367,7 +54364,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55668,7 +55665,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55711,13 +55708,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6">
         <v>-1.5</v>
       </c>
       <c r="C2" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -55726,7 +55723,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>106</v>
@@ -55958,7 +55955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -56006,7 +56003,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
